--- a/data/factors_data/Fama-French 5 Factor.xlsx
+++ b/data/factors_data/Fama-French 5 Factor.xlsx
@@ -474,7 +474,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>23223</v>
+        <v>23223.99998842593</v>
       </c>
       <c r="B2" t="n">
         <v>-0.0039</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>23254</v>
+        <v>23254.99998842593</v>
       </c>
       <c r="B3" t="n">
         <v>0.0507</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>23284</v>
+        <v>23284.99998842593</v>
       </c>
       <c r="B4" t="n">
         <v>-0.0157</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>23315</v>
+        <v>23315.99998842593</v>
       </c>
       <c r="B5" t="n">
         <v>0.0253</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>23345</v>
+        <v>23345.99998842593</v>
       </c>
       <c r="B6" t="n">
         <v>-0.008500000000000001</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>23376</v>
+        <v>23376.99998842593</v>
       </c>
       <c r="B7" t="n">
         <v>0.0183</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>23407</v>
+        <v>23407.99998842593</v>
       </c>
       <c r="B8" t="n">
         <v>0.0224</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>23436</v>
+        <v>23436.99998842593</v>
       </c>
       <c r="B9" t="n">
         <v>0.0154</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>23467</v>
+        <v>23467.99998842593</v>
       </c>
       <c r="B10" t="n">
         <v>0.0141</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>23497</v>
+        <v>23497.99998842593</v>
       </c>
       <c r="B11" t="n">
         <v>0.001</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>23528</v>
+        <v>23528.99998842593</v>
       </c>
       <c r="B12" t="n">
         <v>0.0142</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>23558</v>
+        <v>23558.99998842593</v>
       </c>
       <c r="B13" t="n">
         <v>0.0127</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>23589</v>
+        <v>23589.99998842593</v>
       </c>
       <c r="B14" t="n">
         <v>0.0174</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>23620</v>
+        <v>23620.99998842593</v>
       </c>
       <c r="B15" t="n">
         <v>-0.0144</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>23650</v>
+        <v>23650.99998842593</v>
       </c>
       <c r="B16" t="n">
         <v>0.0269</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>23681</v>
+        <v>23681.99998842593</v>
       </c>
       <c r="B17" t="n">
         <v>0.0059</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>23711</v>
+        <v>23711.99998842593</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>23742</v>
+        <v>23742.99998842593</v>
       </c>
       <c r="B19" t="n">
         <v>0.0003</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>23773</v>
+        <v>23773.99998842593</v>
       </c>
       <c r="B20" t="n">
         <v>0.0354</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>23801</v>
+        <v>23801.99998842593</v>
       </c>
       <c r="B21" t="n">
         <v>0.0044</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>23832</v>
+        <v>23832.99998842593</v>
       </c>
       <c r="B22" t="n">
         <v>-0.0134</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>23862</v>
+        <v>23862.99998842593</v>
       </c>
       <c r="B23" t="n">
         <v>0.0311</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>23893</v>
+        <v>23893.99998842593</v>
       </c>
       <c r="B24" t="n">
         <v>-0.0077</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>23923</v>
+        <v>23923.99998842593</v>
       </c>
       <c r="B25" t="n">
         <v>-0.0551</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>23954</v>
+        <v>23954.99998842593</v>
       </c>
       <c r="B26" t="n">
         <v>0.0143</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>23985</v>
+        <v>23985.99998842593</v>
       </c>
       <c r="B27" t="n">
         <v>0.0273</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>24015</v>
+        <v>24015.99998842593</v>
       </c>
       <c r="B28" t="n">
         <v>0.0286</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>24046</v>
+        <v>24046.99998842593</v>
       </c>
       <c r="B29" t="n">
         <v>0.026</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>24076</v>
+        <v>24076.99998842593</v>
       </c>
       <c r="B30" t="n">
         <v>-0.0003</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>24107</v>
+        <v>24107.99998842593</v>
       </c>
       <c r="B31" t="n">
         <v>0.0101</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>24138</v>
+        <v>24138.99998842593</v>
       </c>
       <c r="B32" t="n">
         <v>0.0072</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>24166</v>
+        <v>24166.99998842593</v>
       </c>
       <c r="B33" t="n">
         <v>-0.0121</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>24197</v>
+        <v>24197.99998842593</v>
       </c>
       <c r="B34" t="n">
         <v>-0.0251</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>24227</v>
+        <v>24227.99998842593</v>
       </c>
       <c r="B35" t="n">
         <v>0.0214</v>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>24258</v>
+        <v>24258.99998842593</v>
       </c>
       <c r="B36" t="n">
         <v>-0.0566</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>24288</v>
+        <v>24288.99998842593</v>
       </c>
       <c r="B37" t="n">
         <v>-0.0144</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>24319</v>
+        <v>24319.99998842593</v>
       </c>
       <c r="B38" t="n">
         <v>-0.0163</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>24350</v>
+        <v>24350.99998842593</v>
       </c>
       <c r="B39" t="n">
         <v>-0.0791</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>24380</v>
+        <v>24380.99998842593</v>
       </c>
       <c r="B40" t="n">
         <v>-0.0106</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>24411</v>
+        <v>24411.99998842593</v>
       </c>
       <c r="B41" t="n">
         <v>0.0386</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>24441</v>
+        <v>24441.99998842593</v>
       </c>
       <c r="B42" t="n">
         <v>0.014</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>24472</v>
+        <v>24472.99998842593</v>
       </c>
       <c r="B43" t="n">
         <v>0.0013</v>
@@ -1440,7 +1440,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>24503</v>
+        <v>24503.99998842593</v>
       </c>
       <c r="B44" t="n">
         <v>0.0815</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>24531</v>
+        <v>24531.99998842593</v>
       </c>
       <c r="B45" t="n">
         <v>0.007800000000000001</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>24562</v>
+        <v>24562.99998842593</v>
       </c>
       <c r="B46" t="n">
         <v>0.0399</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>24592</v>
+        <v>24592.99998842593</v>
       </c>
       <c r="B47" t="n">
         <v>0.0389</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>24623</v>
+        <v>24623.99998842593</v>
       </c>
       <c r="B48" t="n">
         <v>-0.0433</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>24653</v>
+        <v>24653.99998842593</v>
       </c>
       <c r="B49" t="n">
         <v>0.0241</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>24684</v>
+        <v>24684.99998842593</v>
       </c>
       <c r="B50" t="n">
         <v>0.0458</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>24715</v>
+        <v>24715.99998842593</v>
       </c>
       <c r="B51" t="n">
         <v>-0.0089</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>24745</v>
+        <v>24745.99998842593</v>
       </c>
       <c r="B52" t="n">
         <v>0.0311</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>24776</v>
+        <v>24776.99998842593</v>
       </c>
       <c r="B53" t="n">
         <v>-0.0309</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>24806</v>
+        <v>24806.99998842593</v>
       </c>
       <c r="B54" t="n">
         <v>0.0037</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>24837</v>
+        <v>24837.99998842593</v>
       </c>
       <c r="B55" t="n">
         <v>0.0305</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>24868</v>
+        <v>24868.99998842593</v>
       </c>
       <c r="B56" t="n">
         <v>-0.0406</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>24897</v>
+        <v>24897.99998842593</v>
       </c>
       <c r="B57" t="n">
         <v>-0.0375</v>
@@ -1762,7 +1762,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>24928</v>
+        <v>24928.99998842593</v>
       </c>
       <c r="B58" t="n">
         <v>0.002</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>24958</v>
+        <v>24958.99998842593</v>
       </c>
       <c r="B59" t="n">
         <v>0.09050000000000001</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>24989</v>
+        <v>24989.99998842593</v>
       </c>
       <c r="B60" t="n">
         <v>0.0228</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>25019</v>
+        <v>25019.99998842593</v>
       </c>
       <c r="B61" t="n">
         <v>0.0069</v>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>25050</v>
+        <v>25050.99998842593</v>
       </c>
       <c r="B62" t="n">
         <v>-0.0272</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>25081</v>
+        <v>25081.99998842593</v>
       </c>
       <c r="B63" t="n">
         <v>0.0134</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>25111</v>
+        <v>25111.99998842593</v>
       </c>
       <c r="B64" t="n">
         <v>0.0403</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>25142</v>
+        <v>25142.99998842593</v>
       </c>
       <c r="B65" t="n">
         <v>0.0042</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>25172</v>
+        <v>25172.99998842593</v>
       </c>
       <c r="B66" t="n">
         <v>0.05429999999999999</v>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>25203</v>
+        <v>25203.99998842593</v>
       </c>
       <c r="B67" t="n">
         <v>-0.0394</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>25234</v>
+        <v>25234.99998842593</v>
       </c>
       <c r="B68" t="n">
         <v>-0.0125</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>25262</v>
+        <v>25262.99998842593</v>
       </c>
       <c r="B69" t="n">
         <v>-0.0584</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>25293</v>
+        <v>25293.99998842593</v>
       </c>
       <c r="B70" t="n">
         <v>0.0264</v>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>25323</v>
+        <v>25323.99998842593</v>
       </c>
       <c r="B71" t="n">
         <v>0.0146</v>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>25354</v>
+        <v>25354.99998842593</v>
       </c>
       <c r="B72" t="n">
         <v>-0.001</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>25384</v>
+        <v>25384.99998842593</v>
       </c>
       <c r="B73" t="n">
         <v>-0.0718</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>25415</v>
+        <v>25415.99998842593</v>
       </c>
       <c r="B74" t="n">
         <v>-0.07000000000000001</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>25446</v>
+        <v>25446.99998842593</v>
       </c>
       <c r="B75" t="n">
         <v>0.04679999999999999</v>
@@ -2176,7 +2176,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>25476</v>
+        <v>25476.99998842593</v>
       </c>
       <c r="B76" t="n">
         <v>-0.0298</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>25507</v>
+        <v>25507.99998842593</v>
       </c>
       <c r="B77" t="n">
         <v>0.0506</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>25537</v>
+        <v>25537.99998842593</v>
       </c>
       <c r="B78" t="n">
         <v>-0.0379</v>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>25568</v>
+        <v>25568.99998842593</v>
       </c>
       <c r="B79" t="n">
         <v>-0.0263</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>25599</v>
+        <v>25599.99998842593</v>
       </c>
       <c r="B80" t="n">
         <v>-0.081</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>25627</v>
+        <v>25627.99998842593</v>
       </c>
       <c r="B81" t="n">
         <v>0.0513</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>25658</v>
+        <v>25658.99998842593</v>
       </c>
       <c r="B82" t="n">
         <v>-0.0106</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>25688</v>
+        <v>25688.99998842593</v>
       </c>
       <c r="B83" t="n">
         <v>-0.11</v>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>25719</v>
+        <v>25719.99998842593</v>
       </c>
       <c r="B84" t="n">
         <v>-0.0692</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>25749</v>
+        <v>25749.99998842593</v>
       </c>
       <c r="B85" t="n">
         <v>-0.0579</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>25780</v>
+        <v>25780.99998842593</v>
       </c>
       <c r="B86" t="n">
         <v>0.0693</v>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>25811</v>
+        <v>25811.99998842593</v>
       </c>
       <c r="B87" t="n">
         <v>0.0449</v>
@@ -2452,7 +2452,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>25841</v>
+        <v>25841.99998842593</v>
       </c>
       <c r="B88" t="n">
         <v>0.0418</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>25872</v>
+        <v>25872.99998842593</v>
       </c>
       <c r="B89" t="n">
         <v>-0.0228</v>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>25902</v>
+        <v>25902.99998842593</v>
       </c>
       <c r="B90" t="n">
         <v>0.046</v>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>25933</v>
+        <v>25933.99998842593</v>
       </c>
       <c r="B91" t="n">
         <v>0.0572</v>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>25964</v>
+        <v>25964.99998842593</v>
       </c>
       <c r="B92" t="n">
         <v>0.0484</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>25992</v>
+        <v>25992.99998842593</v>
       </c>
       <c r="B93" t="n">
         <v>0.0141</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>26023</v>
+        <v>26023.99998842593</v>
       </c>
       <c r="B94" t="n">
         <v>0.0413</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>26053</v>
+        <v>26053.99998842593</v>
       </c>
       <c r="B95" t="n">
         <v>0.0315</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>26084</v>
+        <v>26084.99998842593</v>
       </c>
       <c r="B96" t="n">
         <v>-0.0398</v>
@@ -2659,7 +2659,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>26114</v>
+        <v>26114.99998842593</v>
       </c>
       <c r="B97" t="n">
         <v>-0.001</v>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>26145</v>
+        <v>26145.99998842593</v>
       </c>
       <c r="B98" t="n">
         <v>-0.045</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>26176</v>
+        <v>26176.99998842593</v>
       </c>
       <c r="B99" t="n">
         <v>0.0379</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>26206</v>
+        <v>26206.99998842593</v>
       </c>
       <c r="B100" t="n">
         <v>-0.008500000000000001</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>26237</v>
+        <v>26237.99998842593</v>
       </c>
       <c r="B101" t="n">
         <v>-0.0442</v>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>26267</v>
+        <v>26267.99998842593</v>
       </c>
       <c r="B102" t="n">
         <v>-0.0046</v>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>26298</v>
+        <v>26298.99998842593</v>
       </c>
       <c r="B103" t="n">
         <v>0.08710000000000001</v>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>26329</v>
+        <v>26329.99998842593</v>
       </c>
       <c r="B104" t="n">
         <v>0.0249</v>
@@ -2843,7 +2843,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>26358</v>
+        <v>26358.99998842593</v>
       </c>
       <c r="B105" t="n">
         <v>0.0287</v>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>26389</v>
+        <v>26389.99998842593</v>
       </c>
       <c r="B106" t="n">
         <v>0.0063</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>26419</v>
+        <v>26419.99998842593</v>
       </c>
       <c r="B107" t="n">
         <v>0.0029</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>26450</v>
+        <v>26450.99998842593</v>
       </c>
       <c r="B108" t="n">
         <v>0.0125</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>26480</v>
+        <v>26480.99998842593</v>
       </c>
       <c r="B109" t="n">
         <v>-0.0243</v>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>26511</v>
+        <v>26511.99998842593</v>
       </c>
       <c r="B110" t="n">
         <v>-0.008</v>
@@ -2981,7 +2981,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>26542</v>
+        <v>26542.99998842593</v>
       </c>
       <c r="B111" t="n">
         <v>0.0326</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>26572</v>
+        <v>26572.99998842593</v>
       </c>
       <c r="B112" t="n">
         <v>-0.0114</v>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>26603</v>
+        <v>26603.99998842593</v>
       </c>
       <c r="B113" t="n">
         <v>0.0052</v>
@@ -3050,7 +3050,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>26633</v>
+        <v>26633.99998842593</v>
       </c>
       <c r="B114" t="n">
         <v>0.046</v>
@@ -3073,7 +3073,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>26664</v>
+        <v>26664.99998842593</v>
       </c>
       <c r="B115" t="n">
         <v>0.0062</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>26695</v>
+        <v>26695.99998842593</v>
       </c>
       <c r="B116" t="n">
         <v>-0.0329</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>26723</v>
+        <v>26723.99998842593</v>
       </c>
       <c r="B117" t="n">
         <v>-0.04849999999999999</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>26754</v>
+        <v>26754.99998842593</v>
       </c>
       <c r="B118" t="n">
         <v>-0.013</v>
@@ -3165,7 +3165,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>26784</v>
+        <v>26784.99998842593</v>
       </c>
       <c r="B119" t="n">
         <v>-0.0568</v>
@@ -3188,7 +3188,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>26815</v>
+        <v>26815.99998842593</v>
       </c>
       <c r="B120" t="n">
         <v>-0.0294</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>26845</v>
+        <v>26845.99998842593</v>
       </c>
       <c r="B121" t="n">
         <v>-0.0156</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>26876</v>
+        <v>26876.99998842593</v>
       </c>
       <c r="B122" t="n">
         <v>0.0505</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>26907</v>
+        <v>26907.99998842593</v>
       </c>
       <c r="B123" t="n">
         <v>-0.0382</v>
@@ -3280,7 +3280,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>26937</v>
+        <v>26937.99998842593</v>
       </c>
       <c r="B124" t="n">
         <v>0.0475</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>26968</v>
+        <v>26968.99998842593</v>
       </c>
       <c r="B125" t="n">
         <v>-0.0083</v>
@@ -3326,7 +3326,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>26998</v>
+        <v>26998.99998842593</v>
       </c>
       <c r="B126" t="n">
         <v>-0.1275</v>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>27029</v>
+        <v>27029.99998842593</v>
       </c>
       <c r="B127" t="n">
         <v>0.0061</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>27060</v>
+        <v>27060.99998842593</v>
       </c>
       <c r="B128" t="n">
         <v>-0.0017</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>27088</v>
+        <v>27088.99998842593</v>
       </c>
       <c r="B129" t="n">
         <v>-0.004699999999999999</v>
@@ -3418,7 +3418,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>27119</v>
+        <v>27119.99998842593</v>
       </c>
       <c r="B130" t="n">
         <v>-0.0281</v>
@@ -3441,7 +3441,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>27149</v>
+        <v>27149.99998842593</v>
       </c>
       <c r="B131" t="n">
         <v>-0.0529</v>
@@ -3464,7 +3464,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>27180</v>
+        <v>27180.99998842593</v>
       </c>
       <c r="B132" t="n">
         <v>-0.04679999999999999</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>27210</v>
+        <v>27210.99998842593</v>
       </c>
       <c r="B133" t="n">
         <v>-0.0283</v>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>27241</v>
+        <v>27241.99998842593</v>
       </c>
       <c r="B134" t="n">
         <v>-0.0805</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>27272</v>
+        <v>27272.99998842593</v>
       </c>
       <c r="B135" t="n">
         <v>-0.0935</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>27302</v>
+        <v>27302.99998842593</v>
       </c>
       <c r="B136" t="n">
         <v>-0.1177</v>
@@ -3579,7 +3579,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>27333</v>
+        <v>27333.99998842593</v>
       </c>
       <c r="B137" t="n">
         <v>0.161</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>27363</v>
+        <v>27363.99998842593</v>
       </c>
       <c r="B138" t="n">
         <v>-0.0451</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>27394</v>
+        <v>27394.99998842593</v>
       </c>
       <c r="B139" t="n">
         <v>-0.0345</v>
@@ -3648,7 +3648,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>27425</v>
+        <v>27425.99998842593</v>
       </c>
       <c r="B140" t="n">
         <v>0.1366</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>27453</v>
+        <v>27453.99998842593</v>
       </c>
       <c r="B141" t="n">
         <v>0.0556</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>27484</v>
+        <v>27484.99998842593</v>
       </c>
       <c r="B142" t="n">
         <v>0.0266</v>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>27514</v>
+        <v>27514.99998842593</v>
       </c>
       <c r="B143" t="n">
         <v>0.0423</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>27545</v>
+        <v>27545.99998842593</v>
       </c>
       <c r="B144" t="n">
         <v>0.0519</v>
@@ -3763,7 +3763,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>27575</v>
+        <v>27575.99998842593</v>
       </c>
       <c r="B145" t="n">
         <v>0.0483</v>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>27606</v>
+        <v>27606.99998842593</v>
       </c>
       <c r="B146" t="n">
         <v>-0.0659</v>
@@ -3809,7 +3809,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>27637</v>
+        <v>27637.99998842593</v>
       </c>
       <c r="B147" t="n">
         <v>-0.0285</v>
@@ -3832,7 +3832,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>27667</v>
+        <v>27667.99998842593</v>
       </c>
       <c r="B148" t="n">
         <v>-0.0426</v>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>27698</v>
+        <v>27698.99998842593</v>
       </c>
       <c r="B149" t="n">
         <v>0.05309999999999999</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>27728</v>
+        <v>27728.99998842593</v>
       </c>
       <c r="B150" t="n">
         <v>0.0264</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>27759</v>
+        <v>27759.99998842593</v>
       </c>
       <c r="B151" t="n">
         <v>-0.016</v>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>27790</v>
+        <v>27790.99998842593</v>
       </c>
       <c r="B152" t="n">
         <v>0.1216</v>
@@ -3947,7 +3947,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>27819</v>
+        <v>27819.99998842593</v>
       </c>
       <c r="B153" t="n">
         <v>0.0032</v>
@@ -3970,7 +3970,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>27850</v>
+        <v>27850.99998842593</v>
       </c>
       <c r="B154" t="n">
         <v>0.0232</v>
@@ -3993,7 +3993,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>27880</v>
+        <v>27880.99998842593</v>
       </c>
       <c r="B155" t="n">
         <v>-0.0149</v>
@@ -4016,7 +4016,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>27911</v>
+        <v>27911.99998842593</v>
       </c>
       <c r="B156" t="n">
         <v>-0.0134</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>27941</v>
+        <v>27941.99998842593</v>
       </c>
       <c r="B157" t="n">
         <v>0.0405</v>
@@ -4062,7 +4062,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>27972</v>
+        <v>27972.99998842593</v>
       </c>
       <c r="B158" t="n">
         <v>-0.0107</v>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>28003</v>
+        <v>28003.99998842593</v>
       </c>
       <c r="B159" t="n">
         <v>-0.005600000000000001</v>
@@ -4108,7 +4108,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>28033</v>
+        <v>28033.99998842593</v>
       </c>
       <c r="B160" t="n">
         <v>0.0207</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>28064</v>
+        <v>28064.99998842593</v>
       </c>
       <c r="B161" t="n">
         <v>-0.0242</v>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>28094</v>
+        <v>28094.99998842593</v>
       </c>
       <c r="B162" t="n">
         <v>0.0036</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>28125</v>
+        <v>28125.99998842593</v>
       </c>
       <c r="B163" t="n">
         <v>0.0565</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>28156</v>
+        <v>28156.99998842593</v>
       </c>
       <c r="B164" t="n">
         <v>-0.0405</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>28184</v>
+        <v>28184.99998842593</v>
       </c>
       <c r="B165" t="n">
         <v>-0.0194</v>
@@ -4246,7 +4246,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>28215</v>
+        <v>28215.99998842593</v>
       </c>
       <c r="B166" t="n">
         <v>-0.0137</v>
@@ -4269,7 +4269,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>28245</v>
+        <v>28245.99998842593</v>
       </c>
       <c r="B167" t="n">
         <v>0.0015</v>
@@ -4292,7 +4292,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>28276</v>
+        <v>28276.99998842593</v>
       </c>
       <c r="B168" t="n">
         <v>-0.0145</v>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>28306</v>
+        <v>28306.99998842593</v>
       </c>
       <c r="B169" t="n">
         <v>0.0471</v>
@@ -4338,7 +4338,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>28337</v>
+        <v>28337.99998842593</v>
       </c>
       <c r="B170" t="n">
         <v>-0.0169</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>28368</v>
+        <v>28368.99998842593</v>
       </c>
       <c r="B171" t="n">
         <v>-0.0175</v>
@@ -4384,7 +4384,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>28398</v>
+        <v>28398.99998842593</v>
       </c>
       <c r="B172" t="n">
         <v>-0.0027</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>28429</v>
+        <v>28429.99998842593</v>
       </c>
       <c r="B173" t="n">
         <v>-0.0438</v>
@@ -4430,7 +4430,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>28459</v>
+        <v>28459.99998842593</v>
       </c>
       <c r="B174" t="n">
         <v>0.04</v>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>28490</v>
+        <v>28490.99998842593</v>
       </c>
       <c r="B175" t="n">
         <v>0.0027</v>
@@ -4476,7 +4476,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>28521</v>
+        <v>28521.99998842593</v>
       </c>
       <c r="B176" t="n">
         <v>-0.0601</v>
@@ -4499,7 +4499,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>28549</v>
+        <v>28549.99998842593</v>
       </c>
       <c r="B177" t="n">
         <v>-0.0138</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>28580</v>
+        <v>28580.99998842593</v>
       </c>
       <c r="B178" t="n">
         <v>0.0285</v>
@@ -4545,7 +4545,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>28610</v>
+        <v>28610.99998842593</v>
       </c>
       <c r="B179" t="n">
         <v>0.0788</v>
@@ -4568,7 +4568,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>28641</v>
+        <v>28641.99998842593</v>
       </c>
       <c r="B180" t="n">
         <v>0.0176</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>28671</v>
+        <v>28671.99998842593</v>
       </c>
       <c r="B181" t="n">
         <v>-0.0169</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>28702</v>
+        <v>28702.99998842593</v>
       </c>
       <c r="B182" t="n">
         <v>0.05110000000000001</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>28733</v>
+        <v>28733.99998842593</v>
       </c>
       <c r="B183" t="n">
         <v>0.0375</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>28763</v>
+        <v>28763.99998842593</v>
       </c>
       <c r="B184" t="n">
         <v>-0.0143</v>
@@ -4683,7 +4683,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>28794</v>
+        <v>28794.99998842593</v>
       </c>
       <c r="B185" t="n">
         <v>-0.1191</v>
@@ -4706,7 +4706,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>28824</v>
+        <v>28824.99998842593</v>
       </c>
       <c r="B186" t="n">
         <v>0.0271</v>
@@ -4729,7 +4729,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>28855</v>
+        <v>28855.99998842593</v>
       </c>
       <c r="B187" t="n">
         <v>0.008800000000000001</v>
@@ -4752,7 +4752,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>28886</v>
+        <v>28886.99998842593</v>
       </c>
       <c r="B188" t="n">
         <v>0.0423</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>28914</v>
+        <v>28914.99998842593</v>
       </c>
       <c r="B189" t="n">
         <v>-0.0356</v>
@@ -4798,7 +4798,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>28945</v>
+        <v>28945.99998842593</v>
       </c>
       <c r="B190" t="n">
         <v>0.0568</v>
@@ -4821,7 +4821,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>28975</v>
+        <v>28975.99998842593</v>
       </c>
       <c r="B191" t="n">
         <v>-0.0005999999999999999</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>29006</v>
+        <v>29006.99998842593</v>
       </c>
       <c r="B192" t="n">
         <v>-0.0221</v>
@@ -4867,7 +4867,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>29036</v>
+        <v>29036.99998842593</v>
       </c>
       <c r="B193" t="n">
         <v>0.0385</v>
@@ -4890,7 +4890,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>29067</v>
+        <v>29067.99998842593</v>
       </c>
       <c r="B194" t="n">
         <v>0.008199999999999999</v>
@@ -4913,7 +4913,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>29098</v>
+        <v>29098.99998842593</v>
       </c>
       <c r="B195" t="n">
         <v>0.0553</v>
@@ -4936,7 +4936,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>29128</v>
+        <v>29128.99998842593</v>
       </c>
       <c r="B196" t="n">
         <v>-0.008199999999999999</v>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>29159</v>
+        <v>29159.99998842593</v>
       </c>
       <c r="B197" t="n">
         <v>-0.081</v>
@@ -4982,7 +4982,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>29189</v>
+        <v>29189.99998842593</v>
       </c>
       <c r="B198" t="n">
         <v>0.0521</v>
@@ -5005,7 +5005,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>29220</v>
+        <v>29220.99998842593</v>
       </c>
       <c r="B199" t="n">
         <v>0.0179</v>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>29251</v>
+        <v>29251.99998842593</v>
       </c>
       <c r="B200" t="n">
         <v>0.0551</v>
@@ -5051,7 +5051,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>29280</v>
+        <v>29280.99998842593</v>
       </c>
       <c r="B201" t="n">
         <v>-0.0122</v>
@@ -5074,7 +5074,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>29311</v>
+        <v>29311.99998842593</v>
       </c>
       <c r="B202" t="n">
         <v>-0.129</v>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>29341</v>
+        <v>29341.99998842593</v>
       </c>
       <c r="B203" t="n">
         <v>0.0397</v>
@@ -5120,7 +5120,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>29372</v>
+        <v>29372.99998842593</v>
       </c>
       <c r="B204" t="n">
         <v>0.0526</v>
@@ -5143,7 +5143,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>29402</v>
+        <v>29402.99998842593</v>
       </c>
       <c r="B205" t="n">
         <v>0.0306</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>29433</v>
+        <v>29433.99998842593</v>
       </c>
       <c r="B206" t="n">
         <v>0.0649</v>
@@ -5189,7 +5189,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>29464</v>
+        <v>29464.99998842593</v>
       </c>
       <c r="B207" t="n">
         <v>0.018</v>
@@ -5212,7 +5212,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>29494</v>
+        <v>29494.99998842593</v>
       </c>
       <c r="B208" t="n">
         <v>0.0219</v>
@@ -5235,7 +5235,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>29525</v>
+        <v>29525.99998842593</v>
       </c>
       <c r="B209" t="n">
         <v>0.0106</v>
@@ -5258,7 +5258,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>29555</v>
+        <v>29555.99998842593</v>
       </c>
       <c r="B210" t="n">
         <v>0.0959</v>
@@ -5281,7 +5281,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>29586</v>
+        <v>29586.99998842593</v>
       </c>
       <c r="B211" t="n">
         <v>-0.0452</v>
@@ -5304,7 +5304,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>29617</v>
+        <v>29617.99998842593</v>
       </c>
       <c r="B212" t="n">
         <v>-0.0504</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>29645</v>
+        <v>29645.99998842593</v>
       </c>
       <c r="B213" t="n">
         <v>0.005699999999999999</v>
@@ -5350,7 +5350,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>29676</v>
+        <v>29676.99998842593</v>
       </c>
       <c r="B214" t="n">
         <v>0.0356</v>
@@ -5373,7 +5373,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>29706</v>
+        <v>29706.99998842593</v>
       </c>
       <c r="B215" t="n">
         <v>-0.0211</v>
@@ -5396,7 +5396,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>29737</v>
+        <v>29737.99998842593</v>
       </c>
       <c r="B216" t="n">
         <v>0.0011</v>
@@ -5419,7 +5419,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>29767</v>
+        <v>29767.99998842593</v>
       </c>
       <c r="B217" t="n">
         <v>-0.0236</v>
@@ -5442,7 +5442,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>29798</v>
+        <v>29798.99998842593</v>
       </c>
       <c r="B218" t="n">
         <v>-0.0154</v>
@@ -5465,7 +5465,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>29829</v>
+        <v>29829.99998842593</v>
       </c>
       <c r="B219" t="n">
         <v>-0.0704</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>29859</v>
+        <v>29859.99998842593</v>
       </c>
       <c r="B220" t="n">
         <v>-0.0717</v>
@@ -5511,7 +5511,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>29890</v>
+        <v>29890.99998842593</v>
       </c>
       <c r="B221" t="n">
         <v>0.0492</v>
@@ -5534,7 +5534,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>29920</v>
+        <v>29920.99998842593</v>
       </c>
       <c r="B222" t="n">
         <v>0.0336</v>
@@ -5557,7 +5557,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>29951</v>
+        <v>29951.99998842593</v>
       </c>
       <c r="B223" t="n">
         <v>-0.0365</v>
@@ -5580,7 +5580,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>29982</v>
+        <v>29982.99998842593</v>
       </c>
       <c r="B224" t="n">
         <v>-0.03240000000000001</v>
@@ -5603,7 +5603,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>30010</v>
+        <v>30010.99998842593</v>
       </c>
       <c r="B225" t="n">
         <v>-0.05860000000000001</v>
@@ -5626,7 +5626,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>30041</v>
+        <v>30041.99998842593</v>
       </c>
       <c r="B226" t="n">
         <v>-0.0187</v>
@@ -5649,7 +5649,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>30071</v>
+        <v>30071.99998842593</v>
       </c>
       <c r="B227" t="n">
         <v>0.0327</v>
@@ -5672,7 +5672,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>30102</v>
+        <v>30102.99998842593</v>
       </c>
       <c r="B228" t="n">
         <v>-0.0399</v>
@@ -5695,7 +5695,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>30132</v>
+        <v>30132.99998842593</v>
       </c>
       <c r="B229" t="n">
         <v>-0.0309</v>
@@ -5718,7 +5718,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>30163</v>
+        <v>30163.99998842593</v>
       </c>
       <c r="B230" t="n">
         <v>-0.0319</v>
@@ -5741,7 +5741,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>30194</v>
+        <v>30194.99998842593</v>
       </c>
       <c r="B231" t="n">
         <v>0.1114</v>
@@ -5764,7 +5764,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>30224</v>
+        <v>30224.99998842593</v>
       </c>
       <c r="B232" t="n">
         <v>0.0129</v>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>30255</v>
+        <v>30255.99998842593</v>
       </c>
       <c r="B233" t="n">
         <v>0.113</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>30285</v>
+        <v>30285.99998842593</v>
       </c>
       <c r="B234" t="n">
         <v>0.0467</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>30316</v>
+        <v>30316.99998842593</v>
       </c>
       <c r="B235" t="n">
         <v>0.005500000000000001</v>
@@ -5856,7 +5856,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>30347</v>
+        <v>30347.99998842593</v>
       </c>
       <c r="B236" t="n">
         <v>0.036</v>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>30375</v>
+        <v>30375.99998842593</v>
       </c>
       <c r="B237" t="n">
         <v>0.0259</v>
@@ -5902,7 +5902,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>30406</v>
+        <v>30406.99998842593</v>
       </c>
       <c r="B238" t="n">
         <v>0.0282</v>
@@ -5925,7 +5925,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>30436</v>
+        <v>30436.99998842593</v>
       </c>
       <c r="B239" t="n">
         <v>0.0667</v>
@@ -5948,7 +5948,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>30467</v>
+        <v>30467.99998842593</v>
       </c>
       <c r="B240" t="n">
         <v>0.0052</v>
@@ -5971,7 +5971,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>30497</v>
+        <v>30497.99998842593</v>
       </c>
       <c r="B241" t="n">
         <v>0.0307</v>
@@ -5994,7 +5994,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>30528</v>
+        <v>30528.99998842593</v>
       </c>
       <c r="B242" t="n">
         <v>-0.0407</v>
@@ -6017,7 +6017,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>30559</v>
+        <v>30559.99998842593</v>
       </c>
       <c r="B243" t="n">
         <v>-0.005</v>
@@ -6040,7 +6040,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>30589</v>
+        <v>30589.99998842593</v>
       </c>
       <c r="B244" t="n">
         <v>0.0091</v>
@@ -6063,7 +6063,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>30620</v>
+        <v>30620.99998842593</v>
       </c>
       <c r="B245" t="n">
         <v>-0.0344</v>
@@ -6086,7 +6086,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>30650</v>
+        <v>30650.99998842593</v>
       </c>
       <c r="B246" t="n">
         <v>0.0216</v>
@@ -6109,7 +6109,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>30681</v>
+        <v>30681.99998842593</v>
       </c>
       <c r="B247" t="n">
         <v>-0.0178</v>
@@ -6132,7 +6132,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>30712</v>
+        <v>30712.99998842593</v>
       </c>
       <c r="B248" t="n">
         <v>-0.0192</v>
@@ -6155,7 +6155,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>30741</v>
+        <v>30741.99998842593</v>
       </c>
       <c r="B249" t="n">
         <v>-0.0482</v>
@@ -6178,7 +6178,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>30772</v>
+        <v>30772.99998842593</v>
       </c>
       <c r="B250" t="n">
         <v>0.0063</v>
@@ -6201,7 +6201,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>30802</v>
+        <v>30802.99998842593</v>
       </c>
       <c r="B251" t="n">
         <v>-0.0051</v>
@@ -6224,7 +6224,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>30833</v>
+        <v>30833.99998842593</v>
       </c>
       <c r="B252" t="n">
         <v>-0.0597</v>
@@ -6247,7 +6247,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>30863</v>
+        <v>30863.99998842593</v>
       </c>
       <c r="B253" t="n">
         <v>0.0182</v>
@@ -6270,7 +6270,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>30894</v>
+        <v>30894.99998842593</v>
       </c>
       <c r="B254" t="n">
         <v>-0.0274</v>
@@ -6293,7 +6293,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>30925</v>
+        <v>30925.99998842593</v>
       </c>
       <c r="B255" t="n">
         <v>0.1028</v>
@@ -6316,7 +6316,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>30955</v>
+        <v>30955.99998842593</v>
       </c>
       <c r="B256" t="n">
         <v>-0.008</v>
@@ -6339,7 +6339,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>30986</v>
+        <v>30986.99998842593</v>
       </c>
       <c r="B257" t="n">
         <v>-0.008399999999999999</v>
@@ -6362,7 +6362,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>31016</v>
+        <v>31016.99998842593</v>
       </c>
       <c r="B258" t="n">
         <v>-0.0176</v>
@@ -6385,7 +6385,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>31047</v>
+        <v>31047.99998842593</v>
       </c>
       <c r="B259" t="n">
         <v>0.0184</v>
@@ -6408,7 +6408,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>31078</v>
+        <v>31078.99998842593</v>
       </c>
       <c r="B260" t="n">
         <v>0.0799</v>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>31106</v>
+        <v>31106.99998842593</v>
       </c>
       <c r="B261" t="n">
         <v>0.0122</v>
@@ -6454,7 +6454,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>31137</v>
+        <v>31137.99998842593</v>
       </c>
       <c r="B262" t="n">
         <v>-0.008399999999999999</v>
@@ -6477,7 +6477,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>31167</v>
+        <v>31167.99998842593</v>
       </c>
       <c r="B263" t="n">
         <v>-0.009599999999999999</v>
@@ -6500,7 +6500,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>31198</v>
+        <v>31198.99998842593</v>
       </c>
       <c r="B264" t="n">
         <v>0.0509</v>
@@ -6523,7 +6523,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>31228</v>
+        <v>31228.99998842593</v>
       </c>
       <c r="B265" t="n">
         <v>0.0127</v>
@@ -6546,7 +6546,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>31259</v>
+        <v>31259.99998842593</v>
       </c>
       <c r="B266" t="n">
         <v>-0.0074</v>
@@ -6569,7 +6569,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>31290</v>
+        <v>31290.99998842593</v>
       </c>
       <c r="B267" t="n">
         <v>-0.0102</v>
@@ -6592,7 +6592,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>31320</v>
+        <v>31320.99998842593</v>
       </c>
       <c r="B268" t="n">
         <v>-0.0454</v>
@@ -6615,7 +6615,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>31351</v>
+        <v>31351.99998842593</v>
       </c>
       <c r="B269" t="n">
         <v>0.04019999999999999</v>
@@ -6638,7 +6638,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>31381</v>
+        <v>31381.99998842593</v>
       </c>
       <c r="B270" t="n">
         <v>0.06480000000000001</v>
@@ -6661,7 +6661,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>31412</v>
+        <v>31412.99998842593</v>
       </c>
       <c r="B271" t="n">
         <v>0.0388</v>
@@ -6684,7 +6684,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>31443</v>
+        <v>31443.99998842593</v>
       </c>
       <c r="B272" t="n">
         <v>0.006500000000000001</v>
@@ -6707,7 +6707,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>31471</v>
+        <v>31471.99998842593</v>
       </c>
       <c r="B273" t="n">
         <v>0.0713</v>
@@ -6730,7 +6730,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>31502</v>
+        <v>31502.99998842593</v>
       </c>
       <c r="B274" t="n">
         <v>0.0488</v>
@@ -6753,7 +6753,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>31532</v>
+        <v>31532.99998842593</v>
       </c>
       <c r="B275" t="n">
         <v>-0.0131</v>
@@ -6776,7 +6776,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>31563</v>
+        <v>31563.99998842593</v>
       </c>
       <c r="B276" t="n">
         <v>0.0462</v>
@@ -6799,7 +6799,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>31593</v>
+        <v>31593.99998842593</v>
       </c>
       <c r="B277" t="n">
         <v>0.0103</v>
@@ -6822,7 +6822,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>31624</v>
+        <v>31624.99998842593</v>
       </c>
       <c r="B278" t="n">
         <v>-0.0645</v>
@@ -6845,7 +6845,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>31655</v>
+        <v>31655.99998842593</v>
       </c>
       <c r="B279" t="n">
         <v>0.0607</v>
@@ -6868,7 +6868,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>31685</v>
+        <v>31685.99998842593</v>
       </c>
       <c r="B280" t="n">
         <v>-0.08599999999999999</v>
@@ -6891,7 +6891,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>31716</v>
+        <v>31716.99998842593</v>
       </c>
       <c r="B281" t="n">
         <v>0.0466</v>
@@ -6914,7 +6914,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>31746</v>
+        <v>31746.99998842593</v>
       </c>
       <c r="B282" t="n">
         <v>0.0117</v>
@@ -6937,7 +6937,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>31777</v>
+        <v>31777.99998842593</v>
       </c>
       <c r="B283" t="n">
         <v>-0.0327</v>
@@ -6960,7 +6960,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>31808</v>
+        <v>31808.99998842593</v>
       </c>
       <c r="B284" t="n">
         <v>0.1247</v>
@@ -6983,7 +6983,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>31836</v>
+        <v>31836.99998842593</v>
       </c>
       <c r="B285" t="n">
         <v>0.04389999999999999</v>
@@ -7006,7 +7006,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>31867</v>
+        <v>31867.99998842593</v>
       </c>
       <c r="B286" t="n">
         <v>0.0164</v>
@@ -7029,7 +7029,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>31897</v>
+        <v>31897.99998842593</v>
       </c>
       <c r="B287" t="n">
         <v>-0.0211</v>
@@ -7052,7 +7052,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>31928</v>
+        <v>31928.99998842593</v>
       </c>
       <c r="B288" t="n">
         <v>0.0011</v>
@@ -7075,7 +7075,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>31958</v>
+        <v>31958.99998842593</v>
       </c>
       <c r="B289" t="n">
         <v>0.0394</v>
@@ -7098,7 +7098,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>31989</v>
+        <v>31989.99998842593</v>
       </c>
       <c r="B290" t="n">
         <v>0.0385</v>
@@ -7121,7 +7121,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>32020</v>
+        <v>32020.99998842593</v>
       </c>
       <c r="B291" t="n">
         <v>0.0352</v>
@@ -7144,7 +7144,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>32050</v>
+        <v>32050.99998842593</v>
       </c>
       <c r="B292" t="n">
         <v>-0.0259</v>
@@ -7167,7 +7167,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>32081</v>
+        <v>32081.99998842593</v>
       </c>
       <c r="B293" t="n">
         <v>-0.2324</v>
@@ -7190,7 +7190,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>32111</v>
+        <v>32111.99998842593</v>
       </c>
       <c r="B294" t="n">
         <v>-0.07769999999999999</v>
@@ -7213,7 +7213,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>32142</v>
+        <v>32142.99998842593</v>
       </c>
       <c r="B295" t="n">
         <v>0.06809999999999999</v>
@@ -7236,7 +7236,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>32173</v>
+        <v>32173.99998842593</v>
       </c>
       <c r="B296" t="n">
         <v>0.0421</v>
@@ -7259,7 +7259,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>32202</v>
+        <v>32202.99998842593</v>
       </c>
       <c r="B297" t="n">
         <v>0.0475</v>
@@ -7282,7 +7282,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>32233</v>
+        <v>32233.99998842593</v>
       </c>
       <c r="B298" t="n">
         <v>-0.0227</v>
@@ -7305,7 +7305,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>32263</v>
+        <v>32263.99998842593</v>
       </c>
       <c r="B299" t="n">
         <v>0.005600000000000001</v>
@@ -7328,7 +7328,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>32294</v>
+        <v>32294.99998842593</v>
       </c>
       <c r="B300" t="n">
         <v>-0.0029</v>
@@ -7351,7 +7351,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>32324</v>
+        <v>32324.99998842593</v>
       </c>
       <c r="B301" t="n">
         <v>0.0479</v>
@@ -7374,7 +7374,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>32355</v>
+        <v>32355.99998842593</v>
       </c>
       <c r="B302" t="n">
         <v>-0.0125</v>
@@ -7397,7 +7397,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>32386</v>
+        <v>32386.99998842593</v>
       </c>
       <c r="B303" t="n">
         <v>-0.0331</v>
@@ -7420,7 +7420,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>32416</v>
+        <v>32416.99998842593</v>
       </c>
       <c r="B304" t="n">
         <v>0.033</v>
@@ -7443,7 +7443,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>32447</v>
+        <v>32447.99998842593</v>
       </c>
       <c r="B305" t="n">
         <v>0.0115</v>
@@ -7466,7 +7466,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>32477</v>
+        <v>32477.99998842593</v>
       </c>
       <c r="B306" t="n">
         <v>-0.0229</v>
@@ -7489,7 +7489,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>32508</v>
+        <v>32508.99998842593</v>
       </c>
       <c r="B307" t="n">
         <v>0.0149</v>
@@ -7512,7 +7512,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>32539</v>
+        <v>32539.99998842593</v>
       </c>
       <c r="B308" t="n">
         <v>0.061</v>
@@ -7535,7 +7535,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>32567</v>
+        <v>32567.99998842593</v>
       </c>
       <c r="B309" t="n">
         <v>-0.0225</v>
@@ -7558,7 +7558,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>32598</v>
+        <v>32598.99998842593</v>
       </c>
       <c r="B310" t="n">
         <v>0.0157</v>
@@ -7581,7 +7581,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>32628</v>
+        <v>32628.99998842593</v>
       </c>
       <c r="B311" t="n">
         <v>0.0433</v>
@@ -7604,7 +7604,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>32659</v>
+        <v>32659.99998842593</v>
       </c>
       <c r="B312" t="n">
         <v>0.0335</v>
@@ -7627,7 +7627,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>32689</v>
+        <v>32689.99998842593</v>
       </c>
       <c r="B313" t="n">
         <v>-0.0135</v>
@@ -7650,7 +7650,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>32720</v>
+        <v>32720.99998842593</v>
       </c>
       <c r="B314" t="n">
         <v>0.07200000000000001</v>
@@ -7673,7 +7673,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>32751</v>
+        <v>32751.99998842593</v>
       </c>
       <c r="B315" t="n">
         <v>0.0144</v>
@@ -7696,7 +7696,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>32781</v>
+        <v>32781.99998842592</v>
       </c>
       <c r="B316" t="n">
         <v>-0.0076</v>
@@ -7719,7 +7719,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>32812</v>
+        <v>32812.99998842592</v>
       </c>
       <c r="B317" t="n">
         <v>-0.0367</v>
@@ -7742,7 +7742,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>32842</v>
+        <v>32842.99998842592</v>
       </c>
       <c r="B318" t="n">
         <v>0.0103</v>
@@ -7765,7 +7765,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>32873</v>
+        <v>32873.99998842592</v>
       </c>
       <c r="B319" t="n">
         <v>0.0116</v>
@@ -7788,7 +7788,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>32904</v>
+        <v>32904.99998842592</v>
       </c>
       <c r="B320" t="n">
         <v>-0.0785</v>
@@ -7811,7 +7811,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>32932</v>
+        <v>32932.99998842592</v>
       </c>
       <c r="B321" t="n">
         <v>0.0111</v>
@@ -7834,7 +7834,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>32963</v>
+        <v>32963.99998842592</v>
       </c>
       <c r="B322" t="n">
         <v>0.0183</v>
@@ -7857,7 +7857,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>32993</v>
+        <v>32993.99998842592</v>
       </c>
       <c r="B323" t="n">
         <v>-0.0336</v>
@@ -7880,7 +7880,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>33024</v>
+        <v>33024.99998842592</v>
       </c>
       <c r="B324" t="n">
         <v>0.0842</v>
@@ -7903,7 +7903,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>33054</v>
+        <v>33054.99998842592</v>
       </c>
       <c r="B325" t="n">
         <v>-0.0109</v>
@@ -7926,7 +7926,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>33085</v>
+        <v>33085.99998842592</v>
       </c>
       <c r="B326" t="n">
         <v>-0.019</v>
@@ -7949,7 +7949,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>33116</v>
+        <v>33116.99998842592</v>
       </c>
       <c r="B327" t="n">
         <v>-0.1015</v>
@@ -7972,7 +7972,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>33146</v>
+        <v>33146.99998842592</v>
       </c>
       <c r="B328" t="n">
         <v>-0.0612</v>
@@ -7995,7 +7995,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>33177</v>
+        <v>33177.99998842592</v>
       </c>
       <c r="B329" t="n">
         <v>-0.0192</v>
@@ -8018,7 +8018,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>33207</v>
+        <v>33207.99998842592</v>
       </c>
       <c r="B330" t="n">
         <v>0.0635</v>
@@ -8041,7 +8041,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>33238</v>
+        <v>33238.99998842592</v>
       </c>
       <c r="B331" t="n">
         <v>0.0246</v>
@@ -8064,7 +8064,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>33269</v>
+        <v>33269.99998842592</v>
       </c>
       <c r="B332" t="n">
         <v>0.0469</v>
@@ -8087,7 +8087,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>33297</v>
+        <v>33297.99998842592</v>
       </c>
       <c r="B333" t="n">
         <v>0.07190000000000001</v>
@@ -8110,7 +8110,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>33328</v>
+        <v>33328.99998842592</v>
       </c>
       <c r="B334" t="n">
         <v>0.0265</v>
@@ -8133,7 +8133,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>33358</v>
+        <v>33358.99998842592</v>
       </c>
       <c r="B335" t="n">
         <v>-0.0028</v>
@@ -8156,7 +8156,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>33389</v>
+        <v>33389.99998842592</v>
       </c>
       <c r="B336" t="n">
         <v>0.0365</v>
@@ -8179,7 +8179,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>33419</v>
+        <v>33419.99998842592</v>
       </c>
       <c r="B337" t="n">
         <v>-0.04940000000000001</v>
@@ -8202,7 +8202,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>33450</v>
+        <v>33450.99998842592</v>
       </c>
       <c r="B338" t="n">
         <v>0.0424</v>
@@ -8225,7 +8225,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>33481</v>
+        <v>33481.99998842592</v>
       </c>
       <c r="B339" t="n">
         <v>0.0232</v>
@@ -8248,7 +8248,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>33511</v>
+        <v>33511.99998842592</v>
       </c>
       <c r="B340" t="n">
         <v>-0.0159</v>
@@ -8271,7 +8271,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>33542</v>
+        <v>33542.99998842592</v>
       </c>
       <c r="B341" t="n">
         <v>0.0129</v>
@@ -8294,7 +8294,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>33572</v>
+        <v>33572.99998842592</v>
       </c>
       <c r="B342" t="n">
         <v>-0.04190000000000001</v>
@@ -8317,7 +8317,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>33603</v>
+        <v>33603.99998842592</v>
       </c>
       <c r="B343" t="n">
         <v>0.1084</v>
@@ -8340,7 +8340,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>33634</v>
+        <v>33634.99998842592</v>
       </c>
       <c r="B344" t="n">
         <v>-0.0059</v>
@@ -8363,7 +8363,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>33663</v>
+        <v>33663.99998842592</v>
       </c>
       <c r="B345" t="n">
         <v>0.0109</v>
@@ -8386,7 +8386,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>33694</v>
+        <v>33694.99998842592</v>
       </c>
       <c r="B346" t="n">
         <v>-0.0266</v>
@@ -8409,7 +8409,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>33724</v>
+        <v>33724.99998842592</v>
       </c>
       <c r="B347" t="n">
         <v>0.0107</v>
@@ -8432,7 +8432,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>33755</v>
+        <v>33755.99998842592</v>
       </c>
       <c r="B348" t="n">
         <v>0.003</v>
@@ -8455,7 +8455,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>33785</v>
+        <v>33785.99998842592</v>
       </c>
       <c r="B349" t="n">
         <v>-0.0234</v>
@@ -8478,7 +8478,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>33816</v>
+        <v>33816.99998842592</v>
       </c>
       <c r="B350" t="n">
         <v>0.0377</v>
@@ -8501,7 +8501,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>33847</v>
+        <v>33847.99998842592</v>
       </c>
       <c r="B351" t="n">
         <v>-0.0238</v>
@@ -8524,7 +8524,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>33877</v>
+        <v>33877.99998842592</v>
       </c>
       <c r="B352" t="n">
         <v>0.0119</v>
@@ -8547,7 +8547,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>33908</v>
+        <v>33908.99998842592</v>
       </c>
       <c r="B353" t="n">
         <v>0.0102</v>
@@ -8570,7 +8570,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>33938</v>
+        <v>33938.99998842592</v>
       </c>
       <c r="B354" t="n">
         <v>0.0413</v>
@@ -8593,7 +8593,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>33969</v>
+        <v>33969.99998842592</v>
       </c>
       <c r="B355" t="n">
         <v>0.0153</v>
@@ -8616,7 +8616,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>34000</v>
+        <v>34000.99998842592</v>
       </c>
       <c r="B356" t="n">
         <v>0.009300000000000001</v>
@@ -8639,7 +8639,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>34028</v>
+        <v>34028.99998842592</v>
       </c>
       <c r="B357" t="n">
         <v>0.0012</v>
@@ -8662,7 +8662,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>34059</v>
+        <v>34059.99998842592</v>
       </c>
       <c r="B358" t="n">
         <v>0.023</v>
@@ -8685,7 +8685,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>34089</v>
+        <v>34089.99998842592</v>
       </c>
       <c r="B359" t="n">
         <v>-0.0305</v>
@@ -8708,7 +8708,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>34120</v>
+        <v>34120.99998842592</v>
       </c>
       <c r="B360" t="n">
         <v>0.0289</v>
@@ -8731,7 +8731,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>34150</v>
+        <v>34150.99998842592</v>
       </c>
       <c r="B361" t="n">
         <v>0.0031</v>
@@ -8754,7 +8754,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>34181</v>
+        <v>34181.99998842592</v>
       </c>
       <c r="B362" t="n">
         <v>-0.0034</v>
@@ -8777,7 +8777,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>34212</v>
+        <v>34212.99998842592</v>
       </c>
       <c r="B363" t="n">
         <v>0.0371</v>
@@ -8800,7 +8800,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>34242</v>
+        <v>34242.99998842592</v>
       </c>
       <c r="B364" t="n">
         <v>-0.0012</v>
@@ -8823,7 +8823,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>34273</v>
+        <v>34273.99998842592</v>
       </c>
       <c r="B365" t="n">
         <v>0.0141</v>
@@ -8846,7 +8846,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>34303</v>
+        <v>34303.99998842592</v>
       </c>
       <c r="B366" t="n">
         <v>-0.0189</v>
@@ -8869,7 +8869,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>34334</v>
+        <v>34334.99998842592</v>
       </c>
       <c r="B367" t="n">
         <v>0.0165</v>
@@ -8892,7 +8892,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>34365</v>
+        <v>34365.99998842592</v>
       </c>
       <c r="B368" t="n">
         <v>0.0287</v>
@@ -8915,7 +8915,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>34393</v>
+        <v>34393.99998842592</v>
       </c>
       <c r="B369" t="n">
         <v>-0.0255</v>
@@ -8938,7 +8938,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>34424</v>
+        <v>34424.99998842592</v>
       </c>
       <c r="B370" t="n">
         <v>-0.0478</v>
@@ -8961,7 +8961,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>34454</v>
+        <v>34454.99998842592</v>
       </c>
       <c r="B371" t="n">
         <v>0.0068</v>
@@ -8984,7 +8984,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>34485</v>
+        <v>34485.99998842592</v>
       </c>
       <c r="B372" t="n">
         <v>0.0058</v>
@@ -9007,7 +9007,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>34515</v>
+        <v>34515.99998842592</v>
       </c>
       <c r="B373" t="n">
         <v>-0.0303</v>
@@ -9030,7 +9030,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>34546</v>
+        <v>34546.99998842592</v>
       </c>
       <c r="B374" t="n">
         <v>0.0282</v>
@@ -9053,7 +9053,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>34577</v>
+        <v>34577.99998842592</v>
       </c>
       <c r="B375" t="n">
         <v>0.0401</v>
@@ -9076,7 +9076,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>34607</v>
+        <v>34607.99998842592</v>
       </c>
       <c r="B376" t="n">
         <v>-0.0231</v>
@@ -9099,7 +9099,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>34638</v>
+        <v>34638.99998842592</v>
       </c>
       <c r="B377" t="n">
         <v>0.0134</v>
@@ -9122,7 +9122,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>34668</v>
+        <v>34668.99998842592</v>
       </c>
       <c r="B378" t="n">
         <v>-0.0404</v>
@@ -9145,7 +9145,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>34699</v>
+        <v>34699.99998842592</v>
       </c>
       <c r="B379" t="n">
         <v>0.0086</v>
@@ -9168,7 +9168,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>34730</v>
+        <v>34730.99998842592</v>
       </c>
       <c r="B380" t="n">
         <v>0.018</v>
@@ -9191,7 +9191,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>34758</v>
+        <v>34758.99998842592</v>
       </c>
       <c r="B381" t="n">
         <v>0.0363</v>
@@ -9214,7 +9214,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>34789</v>
+        <v>34789.99998842592</v>
       </c>
       <c r="B382" t="n">
         <v>0.0219</v>
@@ -9237,7 +9237,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>34819</v>
+        <v>34819.99998842592</v>
       </c>
       <c r="B383" t="n">
         <v>0.0211</v>
@@ -9260,7 +9260,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>34850</v>
+        <v>34850.99998842592</v>
       </c>
       <c r="B384" t="n">
         <v>0.029</v>
@@ -9283,7 +9283,7 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>34880</v>
+        <v>34880.99998842592</v>
       </c>
       <c r="B385" t="n">
         <v>0.0272</v>
@@ -9306,7 +9306,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>34911</v>
+        <v>34911.99998842592</v>
       </c>
       <c r="B386" t="n">
         <v>0.0372</v>
@@ -9329,7 +9329,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>34942</v>
+        <v>34942.99998842592</v>
       </c>
       <c r="B387" t="n">
         <v>0.005500000000000001</v>
@@ -9352,7 +9352,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>34972</v>
+        <v>34972.99998842592</v>
       </c>
       <c r="B388" t="n">
         <v>0.0335</v>
@@ -9375,7 +9375,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>35003</v>
+        <v>35003.99998842592</v>
       </c>
       <c r="B389" t="n">
         <v>-0.0152</v>
@@ -9398,7 +9398,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>35033</v>
+        <v>35033.99998842592</v>
       </c>
       <c r="B390" t="n">
         <v>0.0396</v>
@@ -9421,7 +9421,7 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>35064</v>
+        <v>35064.99998842592</v>
       </c>
       <c r="B391" t="n">
         <v>0.0103</v>
@@ -9444,7 +9444,7 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>35095</v>
+        <v>35095.99998842592</v>
       </c>
       <c r="B392" t="n">
         <v>0.0226</v>
@@ -9467,7 +9467,7 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>35124</v>
+        <v>35124.99998842592</v>
       </c>
       <c r="B393" t="n">
         <v>0.0133</v>
@@ -9490,7 +9490,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>35155</v>
+        <v>35155.99998842592</v>
       </c>
       <c r="B394" t="n">
         <v>0.0073</v>
@@ -9513,7 +9513,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>35185</v>
+        <v>35185.99998842592</v>
       </c>
       <c r="B395" t="n">
         <v>0.0206</v>
@@ -9536,7 +9536,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>35216</v>
+        <v>35216.99998842592</v>
       </c>
       <c r="B396" t="n">
         <v>0.0236</v>
@@ -9559,7 +9559,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>35246</v>
+        <v>35246.99998842592</v>
       </c>
       <c r="B397" t="n">
         <v>-0.0114</v>
@@ -9582,7 +9582,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>35277</v>
+        <v>35277.99998842592</v>
       </c>
       <c r="B398" t="n">
         <v>-0.0597</v>
@@ -9605,7 +9605,7 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>35308</v>
+        <v>35308.99998842592</v>
       </c>
       <c r="B399" t="n">
         <v>0.0277</v>
@@ -9628,7 +9628,7 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>35338</v>
+        <v>35338.99998842592</v>
       </c>
       <c r="B400" t="n">
         <v>0.0501</v>
@@ -9651,7 +9651,7 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>35369</v>
+        <v>35369.99998842592</v>
       </c>
       <c r="B401" t="n">
         <v>0.0086</v>
@@ -9674,7 +9674,7 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>35399</v>
+        <v>35399.99998842592</v>
       </c>
       <c r="B402" t="n">
         <v>0.0625</v>
@@ -9697,7 +9697,7 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>35430</v>
+        <v>35430.99998842592</v>
       </c>
       <c r="B403" t="n">
         <v>-0.017</v>
@@ -9720,7 +9720,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>35461</v>
+        <v>35461.99998842592</v>
       </c>
       <c r="B404" t="n">
         <v>0.0498</v>
@@ -9743,7 +9743,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>35489</v>
+        <v>35489.99998842592</v>
       </c>
       <c r="B405" t="n">
         <v>-0.0049</v>
@@ -9766,7 +9766,7 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>35520</v>
+        <v>35520.99998842592</v>
       </c>
       <c r="B406" t="n">
         <v>-0.05019999999999999</v>
@@ -9789,7 +9789,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>35550</v>
+        <v>35550.99998842592</v>
       </c>
       <c r="B407" t="n">
         <v>0.0404</v>
@@ -9812,7 +9812,7 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>35581</v>
+        <v>35581.99998842592</v>
       </c>
       <c r="B408" t="n">
         <v>0.0674</v>
@@ -9835,7 +9835,7 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>35611</v>
+        <v>35611.99998842592</v>
       </c>
       <c r="B409" t="n">
         <v>0.04099999999999999</v>
@@ -9858,7 +9858,7 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>35642</v>
+        <v>35642.99998842592</v>
       </c>
       <c r="B410" t="n">
         <v>0.0733</v>
@@ -9881,7 +9881,7 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>35673</v>
+        <v>35673.99998842592</v>
       </c>
       <c r="B411" t="n">
         <v>-0.0415</v>
@@ -9904,7 +9904,7 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>35703</v>
+        <v>35703.99998842592</v>
       </c>
       <c r="B412" t="n">
         <v>0.0535</v>
@@ -9927,7 +9927,7 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>35734</v>
+        <v>35734.99998842592</v>
       </c>
       <c r="B413" t="n">
         <v>-0.038</v>
@@ -9950,7 +9950,7 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>35764</v>
+        <v>35764.99998842592</v>
       </c>
       <c r="B414" t="n">
         <v>0.0298</v>
@@ -9973,7 +9973,7 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>35795</v>
+        <v>35795.99998842592</v>
       </c>
       <c r="B415" t="n">
         <v>0.0132</v>
@@ -9996,7 +9996,7 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>35826</v>
+        <v>35826.99998842592</v>
       </c>
       <c r="B416" t="n">
         <v>0.0015</v>
@@ -10019,7 +10019,7 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>35854</v>
+        <v>35854.99998842592</v>
       </c>
       <c r="B417" t="n">
         <v>0.0704</v>
@@ -10042,7 +10042,7 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>35885</v>
+        <v>35885.99998842592</v>
       </c>
       <c r="B418" t="n">
         <v>0.0476</v>
@@ -10065,7 +10065,7 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>35915</v>
+        <v>35915.99998842592</v>
       </c>
       <c r="B419" t="n">
         <v>0.0073</v>
@@ -10088,7 +10088,7 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>35946</v>
+        <v>35946.99998842592</v>
       </c>
       <c r="B420" t="n">
         <v>-0.0307</v>
@@ -10111,7 +10111,7 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>35976</v>
+        <v>35976.99998842592</v>
       </c>
       <c r="B421" t="n">
         <v>0.0318</v>
@@ -10134,7 +10134,7 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>36007</v>
+        <v>36007.99998842592</v>
       </c>
       <c r="B422" t="n">
         <v>-0.0246</v>
@@ -10157,7 +10157,7 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>36038</v>
+        <v>36038.99998842592</v>
       </c>
       <c r="B423" t="n">
         <v>-0.1608</v>
@@ -10180,7 +10180,7 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>36068</v>
+        <v>36068.99998842592</v>
       </c>
       <c r="B424" t="n">
         <v>0.06150000000000001</v>
@@ -10203,7 +10203,7 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>36099</v>
+        <v>36099.99998842592</v>
       </c>
       <c r="B425" t="n">
         <v>0.0713</v>
@@ -10226,7 +10226,7 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>36129</v>
+        <v>36129.99998842592</v>
       </c>
       <c r="B426" t="n">
         <v>0.061</v>
@@ -10249,7 +10249,7 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>36160</v>
+        <v>36160.99998842592</v>
       </c>
       <c r="B427" t="n">
         <v>0.0616</v>
@@ -10272,7 +10272,7 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>36191</v>
+        <v>36191.99998842592</v>
       </c>
       <c r="B428" t="n">
         <v>0.035</v>
@@ -10295,7 +10295,7 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>36219</v>
+        <v>36219.99998842592</v>
       </c>
       <c r="B429" t="n">
         <v>-0.0408</v>
@@ -10318,7 +10318,7 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>36250</v>
+        <v>36250.99998842592</v>
       </c>
       <c r="B430" t="n">
         <v>0.0345</v>
@@ -10341,7 +10341,7 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>36280</v>
+        <v>36280.99998842592</v>
       </c>
       <c r="B431" t="n">
         <v>0.0433</v>
@@ -10364,7 +10364,7 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>36311</v>
+        <v>36311.99998842592</v>
       </c>
       <c r="B432" t="n">
         <v>-0.0246</v>
@@ -10387,7 +10387,7 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>36341</v>
+        <v>36341.99998842592</v>
       </c>
       <c r="B433" t="n">
         <v>0.04769999999999999</v>
@@ -10410,7 +10410,7 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>36372</v>
+        <v>36372.99998842592</v>
       </c>
       <c r="B434" t="n">
         <v>-0.0349</v>
@@ -10433,7 +10433,7 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>36403</v>
+        <v>36403.99998842592</v>
       </c>
       <c r="B435" t="n">
         <v>-0.0138</v>
@@ -10456,7 +10456,7 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>36433</v>
+        <v>36433.99998842592</v>
       </c>
       <c r="B436" t="n">
         <v>-0.0279</v>
@@ -10479,7 +10479,7 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>36464</v>
+        <v>36464.99998842592</v>
       </c>
       <c r="B437" t="n">
         <v>0.0612</v>
@@ -10502,7 +10502,7 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>36494</v>
+        <v>36494.99998842592</v>
       </c>
       <c r="B438" t="n">
         <v>0.0337</v>
@@ -10525,7 +10525,7 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>36525</v>
+        <v>36525.99998842592</v>
       </c>
       <c r="B439" t="n">
         <v>0.07719999999999999</v>
@@ -10548,7 +10548,7 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>36556</v>
+        <v>36556.99998842592</v>
       </c>
       <c r="B440" t="n">
         <v>-0.0474</v>
@@ -10571,7 +10571,7 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>36585</v>
+        <v>36585.99998842592</v>
       </c>
       <c r="B441" t="n">
         <v>0.0245</v>
@@ -10594,7 +10594,7 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>36616</v>
+        <v>36616.99998842592</v>
       </c>
       <c r="B442" t="n">
         <v>0.052</v>
@@ -10617,7 +10617,7 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>36646</v>
+        <v>36646.99998842592</v>
       </c>
       <c r="B443" t="n">
         <v>-0.064</v>
@@ -10640,7 +10640,7 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>36677</v>
+        <v>36677.99998842592</v>
       </c>
       <c r="B444" t="n">
         <v>-0.0442</v>
@@ -10663,7 +10663,7 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>36707</v>
+        <v>36707.99998842592</v>
       </c>
       <c r="B445" t="n">
         <v>0.0464</v>
@@ -10686,7 +10686,7 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>36738</v>
+        <v>36738.99998842592</v>
       </c>
       <c r="B446" t="n">
         <v>-0.0251</v>
@@ -10709,7 +10709,7 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>36769</v>
+        <v>36769.99998842592</v>
       </c>
       <c r="B447" t="n">
         <v>0.0703</v>
@@ -10732,7 +10732,7 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>36799</v>
+        <v>36799.99998842592</v>
       </c>
       <c r="B448" t="n">
         <v>-0.0545</v>
@@ -10755,7 +10755,7 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>36830</v>
+        <v>36830.99998842592</v>
       </c>
       <c r="B449" t="n">
         <v>-0.0276</v>
@@ -10778,7 +10778,7 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>36860</v>
+        <v>36860.99998842592</v>
       </c>
       <c r="B450" t="n">
         <v>-0.1072</v>
@@ -10801,7 +10801,7 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>36891</v>
+        <v>36891.99998842592</v>
       </c>
       <c r="B451" t="n">
         <v>0.0119</v>
@@ -10824,7 +10824,7 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>36922</v>
+        <v>36922.99998842592</v>
       </c>
       <c r="B452" t="n">
         <v>0.0313</v>
@@ -10847,7 +10847,7 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>36950</v>
+        <v>36950.99998842592</v>
       </c>
       <c r="B453" t="n">
         <v>-0.1005</v>
@@ -10870,7 +10870,7 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>36981</v>
+        <v>36981.99998842592</v>
       </c>
       <c r="B454" t="n">
         <v>-0.0726</v>
@@ -10893,7 +10893,7 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>37011</v>
+        <v>37011.99998842592</v>
       </c>
       <c r="B455" t="n">
         <v>0.0794</v>
@@ -10916,7 +10916,7 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>37042</v>
+        <v>37042.99998842592</v>
       </c>
       <c r="B456" t="n">
         <v>0.0072</v>
@@ -10939,7 +10939,7 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>37072</v>
+        <v>37072.99998842592</v>
       </c>
       <c r="B457" t="n">
         <v>-0.0194</v>
@@ -10962,7 +10962,7 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>37103</v>
+        <v>37103.99998842592</v>
       </c>
       <c r="B458" t="n">
         <v>-0.0213</v>
@@ -10985,7 +10985,7 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>37134</v>
+        <v>37134.99998842592</v>
       </c>
       <c r="B459" t="n">
         <v>-0.0646</v>
@@ -11008,7 +11008,7 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>37164</v>
+        <v>37164.99998842592</v>
       </c>
       <c r="B460" t="n">
         <v>-0.0925</v>
@@ -11031,7 +11031,7 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>37195</v>
+        <v>37195.99998842592</v>
       </c>
       <c r="B461" t="n">
         <v>0.0246</v>
@@ -11054,7 +11054,7 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>37225</v>
+        <v>37225.99998842592</v>
       </c>
       <c r="B462" t="n">
         <v>0.07539999999999999</v>
@@ -11077,7 +11077,7 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>37256</v>
+        <v>37256.99998842592</v>
       </c>
       <c r="B463" t="n">
         <v>0.0161</v>
@@ -11100,7 +11100,7 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>37287</v>
+        <v>37287.99998842592</v>
       </c>
       <c r="B464" t="n">
         <v>-0.0144</v>
@@ -11123,7 +11123,7 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>37315</v>
+        <v>37315.99998842592</v>
       </c>
       <c r="B465" t="n">
         <v>-0.0229</v>
@@ -11146,7 +11146,7 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>37346</v>
+        <v>37346.99998842592</v>
       </c>
       <c r="B466" t="n">
         <v>0.0424</v>
@@ -11169,7 +11169,7 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>37376</v>
+        <v>37376.99998842592</v>
       </c>
       <c r="B467" t="n">
         <v>-0.052</v>
@@ -11192,7 +11192,7 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>37407</v>
+        <v>37407.99998842592</v>
       </c>
       <c r="B468" t="n">
         <v>-0.0138</v>
@@ -11215,7 +11215,7 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>37437</v>
+        <v>37437.99998842592</v>
       </c>
       <c r="B469" t="n">
         <v>-0.0721</v>
@@ -11238,7 +11238,7 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>37468</v>
+        <v>37468.99998842592</v>
       </c>
       <c r="B470" t="n">
         <v>-0.0818</v>
@@ -11261,7 +11261,7 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>37499</v>
+        <v>37499.99998842592</v>
       </c>
       <c r="B471" t="n">
         <v>0.005</v>
@@ -11284,7 +11284,7 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>37529</v>
+        <v>37529.99998842592</v>
       </c>
       <c r="B472" t="n">
         <v>-0.1035</v>
@@ -11307,7 +11307,7 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>37560</v>
+        <v>37560.99998842592</v>
       </c>
       <c r="B473" t="n">
         <v>0.0784</v>
@@ -11330,7 +11330,7 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>37590</v>
+        <v>37590.99998842592</v>
       </c>
       <c r="B474" t="n">
         <v>0.0596</v>
@@ -11353,7 +11353,7 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>37621</v>
+        <v>37621.99998842592</v>
       </c>
       <c r="B475" t="n">
         <v>-0.0576</v>
@@ -11376,7 +11376,7 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>37652</v>
+        <v>37652.99998842592</v>
       </c>
       <c r="B476" t="n">
         <v>-0.0257</v>
@@ -11399,7 +11399,7 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>37680</v>
+        <v>37680.99998842592</v>
       </c>
       <c r="B477" t="n">
         <v>-0.0188</v>
@@ -11422,7 +11422,7 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>37711</v>
+        <v>37711.99998842592</v>
       </c>
       <c r="B478" t="n">
         <v>0.0109</v>
@@ -11445,7 +11445,7 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>37741</v>
+        <v>37741.99998842592</v>
       </c>
       <c r="B479" t="n">
         <v>0.08220000000000001</v>
@@ -11468,7 +11468,7 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>37772</v>
+        <v>37772.99998842592</v>
       </c>
       <c r="B480" t="n">
         <v>0.0605</v>
@@ -11491,7 +11491,7 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>37802</v>
+        <v>37802.99998842592</v>
       </c>
       <c r="B481" t="n">
         <v>0.0142</v>
@@ -11514,7 +11514,7 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>37833</v>
+        <v>37833.99998842592</v>
       </c>
       <c r="B482" t="n">
         <v>0.0235</v>
@@ -11537,7 +11537,7 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>37864</v>
+        <v>37864.99998842592</v>
       </c>
       <c r="B483" t="n">
         <v>0.0234</v>
@@ -11560,7 +11560,7 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>37894</v>
+        <v>37894.99998842592</v>
       </c>
       <c r="B484" t="n">
         <v>-0.0124</v>
@@ -11583,7 +11583,7 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>37925</v>
+        <v>37925.99998842592</v>
       </c>
       <c r="B485" t="n">
         <v>0.0608</v>
@@ -11606,7 +11606,7 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>37955</v>
+        <v>37955.99998842592</v>
       </c>
       <c r="B486" t="n">
         <v>0.0135</v>
@@ -11629,7 +11629,7 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>37986</v>
+        <v>37986.99998842592</v>
       </c>
       <c r="B487" t="n">
         <v>0.0429</v>
@@ -11652,7 +11652,7 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>38017</v>
+        <v>38017.99998842592</v>
       </c>
       <c r="B488" t="n">
         <v>0.0215</v>
@@ -11675,7 +11675,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>38046</v>
+        <v>38046.99998842592</v>
       </c>
       <c r="B489" t="n">
         <v>0.014</v>
@@ -11698,7 +11698,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>38077</v>
+        <v>38077.99998842592</v>
       </c>
       <c r="B490" t="n">
         <v>-0.0132</v>
@@ -11721,7 +11721,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>38107</v>
+        <v>38107.99998842592</v>
       </c>
       <c r="B491" t="n">
         <v>-0.0183</v>
@@ -11744,7 +11744,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>38138</v>
+        <v>38138.99998842592</v>
       </c>
       <c r="B492" t="n">
         <v>0.0117</v>
@@ -11767,7 +11767,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>38168</v>
+        <v>38168.99998842592</v>
       </c>
       <c r="B493" t="n">
         <v>0.0186</v>
@@ -11790,7 +11790,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>38199</v>
+        <v>38199.99998842592</v>
       </c>
       <c r="B494" t="n">
         <v>-0.0406</v>
@@ -11813,7 +11813,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>38230</v>
+        <v>38230.99998842592</v>
       </c>
       <c r="B495" t="n">
         <v>0.0008</v>
@@ -11836,7 +11836,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>38260</v>
+        <v>38260.99998842592</v>
       </c>
       <c r="B496" t="n">
         <v>0.016</v>
@@ -11859,7 +11859,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>38291</v>
+        <v>38291.99998842592</v>
       </c>
       <c r="B497" t="n">
         <v>0.0143</v>
@@ -11882,7 +11882,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>38321</v>
+        <v>38321.99998842592</v>
       </c>
       <c r="B498" t="n">
         <v>0.0454</v>
@@ -11905,7 +11905,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>38352</v>
+        <v>38352.99998842592</v>
       </c>
       <c r="B499" t="n">
         <v>0.0343</v>
@@ -11928,7 +11928,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>38383</v>
+        <v>38383.99998842592</v>
       </c>
       <c r="B500" t="n">
         <v>-0.0276</v>
@@ -11951,7 +11951,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>38411</v>
+        <v>38411.99998842592</v>
       </c>
       <c r="B501" t="n">
         <v>0.0189</v>
@@ -11974,7 +11974,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>38442</v>
+        <v>38442.99998842592</v>
       </c>
       <c r="B502" t="n">
         <v>-0.0197</v>
@@ -11997,7 +11997,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>38472</v>
+        <v>38472.99998842592</v>
       </c>
       <c r="B503" t="n">
         <v>-0.0261</v>
@@ -12020,7 +12020,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>38503</v>
+        <v>38503.99998842592</v>
       </c>
       <c r="B504" t="n">
         <v>0.0365</v>
@@ -12043,7 +12043,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>38533</v>
+        <v>38533.99998842592</v>
       </c>
       <c r="B505" t="n">
         <v>0.005699999999999999</v>
@@ -12066,7 +12066,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>38564</v>
+        <v>38564.99998842592</v>
       </c>
       <c r="B506" t="n">
         <v>0.0392</v>
@@ -12089,7 +12089,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>38595</v>
+        <v>38595.99998842592</v>
       </c>
       <c r="B507" t="n">
         <v>-0.0122</v>
@@ -12112,7 +12112,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>38625</v>
+        <v>38625.99998842592</v>
       </c>
       <c r="B508" t="n">
         <v>0.0049</v>
@@ -12135,7 +12135,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>38656</v>
+        <v>38656.99998842592</v>
       </c>
       <c r="B509" t="n">
         <v>-0.0202</v>
@@ -12158,7 +12158,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>38686</v>
+        <v>38686.99998842592</v>
       </c>
       <c r="B510" t="n">
         <v>0.0361</v>
@@ -12181,7 +12181,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>38717</v>
+        <v>38717.99998842592</v>
       </c>
       <c r="B511" t="n">
         <v>-0.0025</v>
@@ -12204,7 +12204,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>38748</v>
+        <v>38748.99998842592</v>
       </c>
       <c r="B512" t="n">
         <v>0.0304</v>
@@ -12227,7 +12227,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>38776</v>
+        <v>38776.99998842592</v>
       </c>
       <c r="B513" t="n">
         <v>-0.003</v>
@@ -12250,7 +12250,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>38807</v>
+        <v>38807.99998842592</v>
       </c>
       <c r="B514" t="n">
         <v>0.0146</v>
@@ -12273,7 +12273,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>38837</v>
+        <v>38837.99998842592</v>
       </c>
       <c r="B515" t="n">
         <v>0.0073</v>
@@ -12296,7 +12296,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>38868</v>
+        <v>38868.99998842592</v>
       </c>
       <c r="B516" t="n">
         <v>-0.0357</v>
@@ -12319,7 +12319,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>38898</v>
+        <v>38898.99998842592</v>
       </c>
       <c r="B517" t="n">
         <v>-0.0035</v>
@@ -12342,7 +12342,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>38929</v>
+        <v>38929.99998842592</v>
       </c>
       <c r="B518" t="n">
         <v>-0.007800000000000001</v>
@@ -12365,7 +12365,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>38960</v>
+        <v>38960.99998842592</v>
       </c>
       <c r="B519" t="n">
         <v>0.0203</v>
@@ -12388,7 +12388,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>38990</v>
+        <v>38990.99998842592</v>
       </c>
       <c r="B520" t="n">
         <v>0.0184</v>
@@ -12411,7 +12411,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>39021</v>
+        <v>39021.99998842592</v>
       </c>
       <c r="B521" t="n">
         <v>0.0323</v>
@@ -12434,7 +12434,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>39051</v>
+        <v>39051.99998842592</v>
       </c>
       <c r="B522" t="n">
         <v>0.0171</v>
@@ -12457,7 +12457,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>39082</v>
+        <v>39082.99998842592</v>
       </c>
       <c r="B523" t="n">
         <v>0.008699999999999999</v>
@@ -12480,7 +12480,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>39113</v>
+        <v>39113.99998842592</v>
       </c>
       <c r="B524" t="n">
         <v>0.014</v>
@@ -12503,7 +12503,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>39141</v>
+        <v>39141.99998842592</v>
       </c>
       <c r="B525" t="n">
         <v>-0.0196</v>
@@ -12526,7 +12526,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>39172</v>
+        <v>39172.99998842592</v>
       </c>
       <c r="B526" t="n">
         <v>0.0068</v>
@@ -12549,7 +12549,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>39202</v>
+        <v>39202.99998842592</v>
       </c>
       <c r="B527" t="n">
         <v>0.0349</v>
@@ -12572,7 +12572,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>39233</v>
+        <v>39233.99998842592</v>
       </c>
       <c r="B528" t="n">
         <v>0.03240000000000001</v>
@@ -12595,7 +12595,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>39263</v>
+        <v>39263.99998842592</v>
       </c>
       <c r="B529" t="n">
         <v>-0.0196</v>
@@ -12618,7 +12618,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>39294</v>
+        <v>39294.99998842592</v>
       </c>
       <c r="B530" t="n">
         <v>-0.0373</v>
@@ -12641,7 +12641,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>39325</v>
+        <v>39325.99998842592</v>
       </c>
       <c r="B531" t="n">
         <v>0.0092</v>
@@ -12664,7 +12664,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>39355</v>
+        <v>39355.99998842592</v>
       </c>
       <c r="B532" t="n">
         <v>0.0322</v>
@@ -12687,7 +12687,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>39386</v>
+        <v>39386.99998842592</v>
       </c>
       <c r="B533" t="n">
         <v>0.018</v>
@@ -12710,7 +12710,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>39416</v>
+        <v>39416.99998842592</v>
       </c>
       <c r="B534" t="n">
         <v>-0.0483</v>
@@ -12733,7 +12733,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>39447</v>
+        <v>39447.99998842592</v>
       </c>
       <c r="B535" t="n">
         <v>-0.008699999999999999</v>
@@ -12756,7 +12756,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>39478</v>
+        <v>39478.99998842592</v>
       </c>
       <c r="B536" t="n">
         <v>-0.0636</v>
@@ -12779,7 +12779,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>39507</v>
+        <v>39507.99998842592</v>
       </c>
       <c r="B537" t="n">
         <v>-0.0309</v>
@@ -12802,7 +12802,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>39538</v>
+        <v>39538.99998842592</v>
       </c>
       <c r="B538" t="n">
         <v>-0.009300000000000001</v>
@@ -12825,7 +12825,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>39568</v>
+        <v>39568.99998842592</v>
       </c>
       <c r="B539" t="n">
         <v>0.046</v>
@@ -12848,7 +12848,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>39599</v>
+        <v>39599.99998842592</v>
       </c>
       <c r="B540" t="n">
         <v>0.0186</v>
@@ -12871,7 +12871,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>39629</v>
+        <v>39629.99998842592</v>
       </c>
       <c r="B541" t="n">
         <v>-0.08439999999999999</v>
@@ -12894,7 +12894,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>39660</v>
+        <v>39660.99998842592</v>
       </c>
       <c r="B542" t="n">
         <v>-0.0077</v>
@@ -12917,7 +12917,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>39691</v>
+        <v>39691.99998842592</v>
       </c>
       <c r="B543" t="n">
         <v>0.0153</v>
@@ -12940,7 +12940,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>39721</v>
+        <v>39721.99998842592</v>
       </c>
       <c r="B544" t="n">
         <v>-0.0924</v>
@@ -12963,7 +12963,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>39752</v>
+        <v>39752.99998842592</v>
       </c>
       <c r="B545" t="n">
         <v>-0.1723</v>
@@ -12986,7 +12986,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>39782</v>
+        <v>39782.99998842592</v>
       </c>
       <c r="B546" t="n">
         <v>-0.0786</v>
@@ -13009,7 +13009,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>39813</v>
+        <v>39813.99998842592</v>
       </c>
       <c r="B547" t="n">
         <v>0.0174</v>
@@ -13032,7 +13032,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>39844</v>
+        <v>39844.99998842592</v>
       </c>
       <c r="B548" t="n">
         <v>-0.08119999999999999</v>
@@ -13055,7 +13055,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>39872</v>
+        <v>39872.99998842592</v>
       </c>
       <c r="B549" t="n">
         <v>-0.101</v>
@@ -13078,7 +13078,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>39903</v>
+        <v>39903.99998842592</v>
       </c>
       <c r="B550" t="n">
         <v>0.0895</v>
@@ -13101,7 +13101,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>39933</v>
+        <v>39933.99998842592</v>
       </c>
       <c r="B551" t="n">
         <v>0.1019</v>
@@ -13124,7 +13124,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>39964</v>
+        <v>39964.99998842592</v>
       </c>
       <c r="B552" t="n">
         <v>0.0521</v>
@@ -13147,7 +13147,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>39994</v>
+        <v>39994.99998842592</v>
       </c>
       <c r="B553" t="n">
         <v>0.0043</v>
@@ -13170,7 +13170,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>40025</v>
+        <v>40025.99998842592</v>
       </c>
       <c r="B554" t="n">
         <v>0.07719999999999999</v>
@@ -13193,7 +13193,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>40056</v>
+        <v>40056.99998842592</v>
       </c>
       <c r="B555" t="n">
         <v>0.0333</v>
@@ -13216,7 +13216,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>40086</v>
+        <v>40086.99998842592</v>
       </c>
       <c r="B556" t="n">
         <v>0.0408</v>
@@ -13239,7 +13239,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>40117</v>
+        <v>40117.99998842592</v>
       </c>
       <c r="B557" t="n">
         <v>-0.0259</v>
@@ -13262,7 +13262,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>40147</v>
+        <v>40147.99998842592</v>
       </c>
       <c r="B558" t="n">
         <v>0.0556</v>
@@ -13285,7 +13285,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>40178</v>
+        <v>40178.99998842592</v>
       </c>
       <c r="B559" t="n">
         <v>0.0275</v>
@@ -13308,7 +13308,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>40209</v>
+        <v>40209.99998842592</v>
       </c>
       <c r="B560" t="n">
         <v>-0.0336</v>
@@ -13331,7 +13331,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>40237</v>
+        <v>40237.99998842592</v>
       </c>
       <c r="B561" t="n">
         <v>0.034</v>
@@ -13354,7 +13354,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>40268</v>
+        <v>40268.99998842592</v>
       </c>
       <c r="B562" t="n">
         <v>0.06309999999999999</v>
@@ -13377,7 +13377,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>40298</v>
+        <v>40298.99998842592</v>
       </c>
       <c r="B563" t="n">
         <v>0.02</v>
@@ -13400,7 +13400,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>40329</v>
+        <v>40329.99998842592</v>
       </c>
       <c r="B564" t="n">
         <v>-0.0789</v>
@@ -13423,7 +13423,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>40359</v>
+        <v>40359.99998842592</v>
       </c>
       <c r="B565" t="n">
         <v>-0.0556</v>
@@ -13446,7 +13446,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>40390</v>
+        <v>40390.99998842592</v>
       </c>
       <c r="B566" t="n">
         <v>0.0693</v>
@@ -13469,7 +13469,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>40421</v>
+        <v>40421.99998842592</v>
       </c>
       <c r="B567" t="n">
         <v>-0.04769999999999999</v>
@@ -13492,7 +13492,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>40451</v>
+        <v>40451.99998842592</v>
       </c>
       <c r="B568" t="n">
         <v>0.09539999999999998</v>
@@ -13515,7 +13515,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>40482</v>
+        <v>40482.99998842592</v>
       </c>
       <c r="B569" t="n">
         <v>0.0388</v>
@@ -13538,7 +13538,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>40512</v>
+        <v>40512.99998842592</v>
       </c>
       <c r="B570" t="n">
         <v>0.006</v>
@@ -13561,7 +13561,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>40543</v>
+        <v>40543.99998842592</v>
       </c>
       <c r="B571" t="n">
         <v>0.0682</v>
@@ -13584,7 +13584,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>40574</v>
+        <v>40574.99998842592</v>
       </c>
       <c r="B572" t="n">
         <v>0.0199</v>
@@ -13607,7 +13607,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>40602</v>
+        <v>40602.99998842592</v>
       </c>
       <c r="B573" t="n">
         <v>0.0349</v>
@@ -13630,7 +13630,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>40633</v>
+        <v>40633.99998842592</v>
       </c>
       <c r="B574" t="n">
         <v>0.004500000000000001</v>
@@ -13653,7 +13653,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>40663</v>
+        <v>40663.99998842592</v>
       </c>
       <c r="B575" t="n">
         <v>0.029</v>
@@ -13676,7 +13676,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>40694</v>
+        <v>40694.99998842592</v>
       </c>
       <c r="B576" t="n">
         <v>-0.0127</v>
@@ -13699,7 +13699,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>40724</v>
+        <v>40724.99998842592</v>
       </c>
       <c r="B577" t="n">
         <v>-0.0175</v>
@@ -13722,7 +13722,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>40755</v>
+        <v>40755.99998842592</v>
       </c>
       <c r="B578" t="n">
         <v>-0.0236</v>
@@ -13745,7 +13745,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>40786</v>
+        <v>40786.99998842592</v>
       </c>
       <c r="B579" t="n">
         <v>-0.0599</v>
@@ -13768,7 +13768,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>40816</v>
+        <v>40816.99998842592</v>
       </c>
       <c r="B580" t="n">
         <v>-0.0759</v>
@@ -13791,7 +13791,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>40847</v>
+        <v>40847.99998842592</v>
       </c>
       <c r="B581" t="n">
         <v>0.1135</v>
@@ -13814,7 +13814,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>40877</v>
+        <v>40877.99998842592</v>
       </c>
       <c r="B582" t="n">
         <v>-0.0028</v>
@@ -13837,7 +13837,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>40908</v>
+        <v>40908.99998842592</v>
       </c>
       <c r="B583" t="n">
         <v>0.0074</v>
@@ -13860,7 +13860,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>40939</v>
+        <v>40939.99998842592</v>
       </c>
       <c r="B584" t="n">
         <v>0.0505</v>
@@ -13883,7 +13883,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>40968</v>
+        <v>40968.99998842592</v>
       </c>
       <c r="B585" t="n">
         <v>0.0442</v>
@@ -13906,7 +13906,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>40999</v>
+        <v>40999.99998842592</v>
       </c>
       <c r="B586" t="n">
         <v>0.0311</v>
@@ -13929,7 +13929,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>41029</v>
+        <v>41029.99998842592</v>
       </c>
       <c r="B587" t="n">
         <v>-0.008500000000000001</v>
@@ -13952,7 +13952,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>41060</v>
+        <v>41060.99998842592</v>
       </c>
       <c r="B588" t="n">
         <v>-0.0619</v>
@@ -13975,7 +13975,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>41090</v>
+        <v>41090.99998842592</v>
       </c>
       <c r="B589" t="n">
         <v>0.0389</v>
@@ -13998,7 +13998,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>41121</v>
+        <v>41121.99998842592</v>
       </c>
       <c r="B590" t="n">
         <v>0.007900000000000001</v>
@@ -14021,7 +14021,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>41152</v>
+        <v>41152.99998842592</v>
       </c>
       <c r="B591" t="n">
         <v>0.0255</v>
@@ -14044,7 +14044,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>41182</v>
+        <v>41182.99998842592</v>
       </c>
       <c r="B592" t="n">
         <v>0.0273</v>
@@ -14067,7 +14067,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>41213</v>
+        <v>41213.99998842592</v>
       </c>
       <c r="B593" t="n">
         <v>-0.0176</v>
@@ -14090,7 +14090,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>41243</v>
+        <v>41243.99998842592</v>
       </c>
       <c r="B594" t="n">
         <v>0.007800000000000001</v>
@@ -14113,7 +14113,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>41274</v>
+        <v>41274.99998842592</v>
       </c>
       <c r="B595" t="n">
         <v>0.0118</v>
@@ -14136,7 +14136,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>41305</v>
+        <v>41305.99998842592</v>
       </c>
       <c r="B596" t="n">
         <v>0.0557</v>
@@ -14159,7 +14159,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>41333</v>
+        <v>41333.99998842592</v>
       </c>
       <c r="B597" t="n">
         <v>0.0129</v>
@@ -14182,7 +14182,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>41364</v>
+        <v>41364.99998842592</v>
       </c>
       <c r="B598" t="n">
         <v>0.0403</v>
@@ -14205,7 +14205,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>41394</v>
+        <v>41394.99998842592</v>
       </c>
       <c r="B599" t="n">
         <v>0.0155</v>
@@ -14228,7 +14228,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>41425</v>
+        <v>41425.99998842592</v>
       </c>
       <c r="B600" t="n">
         <v>0.028</v>
@@ -14251,7 +14251,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>41455</v>
+        <v>41455.99998842592</v>
       </c>
       <c r="B601" t="n">
         <v>-0.012</v>
@@ -14274,7 +14274,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>41486</v>
+        <v>41486.99998842592</v>
       </c>
       <c r="B602" t="n">
         <v>0.0565</v>
@@ -14297,7 +14297,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>41517</v>
+        <v>41517.99998842592</v>
       </c>
       <c r="B603" t="n">
         <v>-0.0271</v>
@@ -14320,7 +14320,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>41547</v>
+        <v>41547.99998842592</v>
       </c>
       <c r="B604" t="n">
         <v>0.0377</v>
@@ -14343,7 +14343,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>41578</v>
+        <v>41578.99998842592</v>
       </c>
       <c r="B605" t="n">
         <v>0.0418</v>
@@ -14366,7 +14366,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>41608</v>
+        <v>41608.99998842592</v>
       </c>
       <c r="B606" t="n">
         <v>0.0312</v>
@@ -14389,7 +14389,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>41639</v>
+        <v>41639.99998842592</v>
       </c>
       <c r="B607" t="n">
         <v>0.0281</v>
@@ -14412,7 +14412,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>41670</v>
+        <v>41670.99998842592</v>
       </c>
       <c r="B608" t="n">
         <v>-0.0332</v>
@@ -14435,7 +14435,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>41698</v>
+        <v>41698.99998842592</v>
       </c>
       <c r="B609" t="n">
         <v>0.04650000000000001</v>
@@ -14458,7 +14458,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>41729</v>
+        <v>41729.99998842592</v>
       </c>
       <c r="B610" t="n">
         <v>0.0043</v>
@@ -14481,7 +14481,7 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>41759</v>
+        <v>41759.99998842592</v>
       </c>
       <c r="B611" t="n">
         <v>-0.0019</v>
@@ -14504,7 +14504,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>41790</v>
+        <v>41790.99998842592</v>
       </c>
       <c r="B612" t="n">
         <v>0.0206</v>
@@ -14527,7 +14527,7 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>41820</v>
+        <v>41820.99998842592</v>
       </c>
       <c r="B613" t="n">
         <v>0.0261</v>
@@ -14550,7 +14550,7 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>41851</v>
+        <v>41851.99998842592</v>
       </c>
       <c r="B614" t="n">
         <v>-0.0204</v>
@@ -14573,7 +14573,7 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>41882</v>
+        <v>41882.99998842592</v>
       </c>
       <c r="B615" t="n">
         <v>0.0424</v>
@@ -14596,7 +14596,7 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>41912</v>
+        <v>41912.99998842592</v>
       </c>
       <c r="B616" t="n">
         <v>-0.0197</v>
@@ -14619,7 +14619,7 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>41943</v>
+        <v>41943.99998842592</v>
       </c>
       <c r="B617" t="n">
         <v>0.0252</v>
@@ -14642,7 +14642,7 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>41973</v>
+        <v>41973.99998842592</v>
       </c>
       <c r="B618" t="n">
         <v>0.0255</v>
@@ -14665,7 +14665,7 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>42004</v>
+        <v>42004.99998842592</v>
       </c>
       <c r="B619" t="n">
         <v>-0.0005999999999999999</v>
@@ -14688,7 +14688,7 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>42035</v>
+        <v>42035.99998842592</v>
       </c>
       <c r="B620" t="n">
         <v>-0.0311</v>
@@ -14711,7 +14711,7 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>42063</v>
+        <v>42063.99998842592</v>
       </c>
       <c r="B621" t="n">
         <v>0.0613</v>
@@ -14734,7 +14734,7 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>42094</v>
+        <v>42094.99998842592</v>
       </c>
       <c r="B622" t="n">
         <v>-0.0112</v>
@@ -14757,7 +14757,7 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>42124</v>
+        <v>42124.99998842592</v>
       </c>
       <c r="B623" t="n">
         <v>0.0059</v>
@@ -14780,7 +14780,7 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>42155</v>
+        <v>42155.99998842592</v>
       </c>
       <c r="B624" t="n">
         <v>0.0136</v>
@@ -14803,7 +14803,7 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>42185</v>
+        <v>42185.99998842592</v>
       </c>
       <c r="B625" t="n">
         <v>-0.0153</v>
@@ -14826,7 +14826,7 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>42216</v>
+        <v>42216.99998842592</v>
       </c>
       <c r="B626" t="n">
         <v>0.0154</v>
@@ -14849,7 +14849,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>42247</v>
+        <v>42247.99998842592</v>
       </c>
       <c r="B627" t="n">
         <v>-0.0604</v>
@@ -14872,7 +14872,7 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>42277</v>
+        <v>42277.99998842592</v>
       </c>
       <c r="B628" t="n">
         <v>-0.0308</v>
@@ -14895,7 +14895,7 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>42308</v>
+        <v>42308.99998842592</v>
       </c>
       <c r="B629" t="n">
         <v>0.0775</v>
@@ -14918,7 +14918,7 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>42338</v>
+        <v>42338.99998842592</v>
       </c>
       <c r="B630" t="n">
         <v>0.005600000000000001</v>
@@ -14941,7 +14941,7 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>42369</v>
+        <v>42369.99998842592</v>
       </c>
       <c r="B631" t="n">
         <v>-0.0217</v>
@@ -14964,7 +14964,7 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>42400</v>
+        <v>42400.99998842592</v>
       </c>
       <c r="B632" t="n">
         <v>-0.05769999999999999</v>
@@ -14987,7 +14987,7 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>42429</v>
+        <v>42429.99998842592</v>
       </c>
       <c r="B633" t="n">
         <v>-0.0007000000000000001</v>
@@ -15010,7 +15010,7 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>42460</v>
+        <v>42460.99998842592</v>
       </c>
       <c r="B634" t="n">
         <v>0.0696</v>
@@ -15033,7 +15033,7 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>42490</v>
+        <v>42490.99998842592</v>
       </c>
       <c r="B635" t="n">
         <v>0.0092</v>
@@ -15056,7 +15056,7 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>42521</v>
+        <v>42521.99998842592</v>
       </c>
       <c r="B636" t="n">
         <v>0.0178</v>
@@ -15079,7 +15079,7 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>42551</v>
+        <v>42551.99998842592</v>
       </c>
       <c r="B637" t="n">
         <v>-0.0005</v>
@@ -15102,7 +15102,7 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>42582</v>
+        <v>42582.99998842592</v>
       </c>
       <c r="B638" t="n">
         <v>0.0395</v>
@@ -15125,7 +15125,7 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>42613</v>
+        <v>42613.99998842592</v>
       </c>
       <c r="B639" t="n">
         <v>0.005</v>
@@ -15148,7 +15148,7 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>42643</v>
+        <v>42643.99998842592</v>
       </c>
       <c r="B640" t="n">
         <v>0.0025</v>
@@ -15171,7 +15171,7 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>42674</v>
+        <v>42674.99998842592</v>
       </c>
       <c r="B641" t="n">
         <v>-0.0202</v>
@@ -15194,7 +15194,7 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>42704</v>
+        <v>42704.99998842592</v>
       </c>
       <c r="B642" t="n">
         <v>0.0486</v>
@@ -15217,7 +15217,7 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>42735</v>
+        <v>42735.99998842592</v>
       </c>
       <c r="B643" t="n">
         <v>0.0181</v>
@@ -15240,7 +15240,7 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>42766</v>
+        <v>42766.99998842592</v>
       </c>
       <c r="B644" t="n">
         <v>0.0194</v>
@@ -15263,7 +15263,7 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>42794</v>
+        <v>42794.99998842592</v>
       </c>
       <c r="B645" t="n">
         <v>0.0357</v>
@@ -15286,7 +15286,7 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>42825</v>
+        <v>42825.99998842592</v>
       </c>
       <c r="B646" t="n">
         <v>0.0017</v>
@@ -15309,7 +15309,7 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>42855</v>
+        <v>42855.99998842592</v>
       </c>
       <c r="B647" t="n">
         <v>0.0109</v>
@@ -15332,7 +15332,7 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>42886</v>
+        <v>42886.99998842592</v>
       </c>
       <c r="B648" t="n">
         <v>0.0106</v>
@@ -15355,7 +15355,7 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>42916</v>
+        <v>42916.99998842592</v>
       </c>
       <c r="B649" t="n">
         <v>0.007800000000000001</v>
@@ -15378,7 +15378,7 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>42947</v>
+        <v>42947.99998842592</v>
       </c>
       <c r="B650" t="n">
         <v>0.0187</v>
@@ -15401,7 +15401,7 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>42978</v>
+        <v>42978.99998842592</v>
       </c>
       <c r="B651" t="n">
         <v>0.0016</v>
@@ -15424,7 +15424,7 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>43008</v>
+        <v>43008.99998842592</v>
       </c>
       <c r="B652" t="n">
         <v>0.0251</v>
@@ -15447,7 +15447,7 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>43039</v>
+        <v>43039.99998842592</v>
       </c>
       <c r="B653" t="n">
         <v>0.0225</v>
@@ -15470,7 +15470,7 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>43069</v>
+        <v>43069.99998842592</v>
       </c>
       <c r="B654" t="n">
         <v>0.0312</v>
@@ -15493,7 +15493,7 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>43100</v>
+        <v>43100.99998842592</v>
       </c>
       <c r="B655" t="n">
         <v>0.0106</v>
@@ -15516,7 +15516,7 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>43131</v>
+        <v>43131.99998842592</v>
       </c>
       <c r="B656" t="n">
         <v>0.0558</v>
@@ -15539,7 +15539,7 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>43159</v>
+        <v>43159.99998842592</v>
       </c>
       <c r="B657" t="n">
         <v>-0.0365</v>
@@ -15562,7 +15562,7 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>43190</v>
+        <v>43190.99998842592</v>
       </c>
       <c r="B658" t="n">
         <v>-0.0235</v>
@@ -15585,7 +15585,7 @@
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>43220</v>
+        <v>43220.99998842592</v>
       </c>
       <c r="B659" t="n">
         <v>0.0029</v>
@@ -15608,7 +15608,7 @@
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>43251</v>
+        <v>43251.99998842592</v>
       </c>
       <c r="B660" t="n">
         <v>0.0265</v>
@@ -15631,7 +15631,7 @@
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>43281</v>
+        <v>43281.99998842592</v>
       </c>
       <c r="B661" t="n">
         <v>0.0048</v>
@@ -15654,7 +15654,7 @@
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>43312</v>
+        <v>43312.99998842592</v>
       </c>
       <c r="B662" t="n">
         <v>0.0319</v>
@@ -15677,7 +15677,7 @@
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>43343</v>
+        <v>43343.99998842592</v>
       </c>
       <c r="B663" t="n">
         <v>0.0344</v>
@@ -15700,7 +15700,7 @@
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
-        <v>43373</v>
+        <v>43373.99998842592</v>
       </c>
       <c r="B664" t="n">
         <v>0.0005999999999999999</v>
@@ -15723,7 +15723,7 @@
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
-        <v>43404</v>
+        <v>43404.99998842592</v>
       </c>
       <c r="B665" t="n">
         <v>-0.07679999999999999</v>
@@ -15746,7 +15746,7 @@
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
-        <v>43434</v>
+        <v>43434.99998842592</v>
       </c>
       <c r="B666" t="n">
         <v>0.0169</v>
@@ -15769,7 +15769,7 @@
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
-        <v>43465</v>
+        <v>43465.99998842592</v>
       </c>
       <c r="B667" t="n">
         <v>-0.0955</v>
@@ -15792,7 +15792,7 @@
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
-        <v>43496</v>
+        <v>43496.99998842592</v>
       </c>
       <c r="B668" t="n">
         <v>0.08410000000000001</v>
@@ -15815,7 +15815,7 @@
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
-        <v>43524</v>
+        <v>43524.99998842592</v>
       </c>
       <c r="B669" t="n">
         <v>0.034</v>
@@ -15838,7 +15838,7 @@
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
-        <v>43555</v>
+        <v>43555.99998842592</v>
       </c>
       <c r="B670" t="n">
         <v>0.011</v>
@@ -15861,7 +15861,7 @@
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
-        <v>43585</v>
+        <v>43585.99998842592</v>
       </c>
       <c r="B671" t="n">
         <v>0.0396</v>
@@ -15884,7 +15884,7 @@
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
-        <v>43616</v>
+        <v>43616.99998842592</v>
       </c>
       <c r="B672" t="n">
         <v>-0.0694</v>
@@ -15907,7 +15907,7 @@
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
-        <v>43646</v>
+        <v>43646.99998842592</v>
       </c>
       <c r="B673" t="n">
         <v>0.0693</v>
@@ -15930,7 +15930,7 @@
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
-        <v>43677</v>
+        <v>43677.99998842592</v>
       </c>
       <c r="B674" t="n">
         <v>0.0119</v>
@@ -15953,7 +15953,7 @@
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
-        <v>43708</v>
+        <v>43708.99998842592</v>
       </c>
       <c r="B675" t="n">
         <v>-0.0258</v>
@@ -15976,7 +15976,7 @@
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
-        <v>43738</v>
+        <v>43738.99998842592</v>
       </c>
       <c r="B676" t="n">
         <v>0.0143</v>
@@ -15999,7 +15999,7 @@
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
-        <v>43769</v>
+        <v>43769.99998842592</v>
       </c>
       <c r="B677" t="n">
         <v>0.0206</v>
@@ -16022,7 +16022,7 @@
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
-        <v>43799</v>
+        <v>43799.99998842592</v>
       </c>
       <c r="B678" t="n">
         <v>0.0387</v>
@@ -16045,7 +16045,7 @@
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
-        <v>43830</v>
+        <v>43830.99998842592</v>
       </c>
       <c r="B679" t="n">
         <v>0.0277</v>
@@ -16068,7 +16068,7 @@
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
-        <v>43861</v>
+        <v>43861.99998842592</v>
       </c>
       <c r="B680" t="n">
         <v>-0.0011</v>
@@ -16091,7 +16091,7 @@
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
-        <v>43890</v>
+        <v>43890.99998842592</v>
       </c>
       <c r="B681" t="n">
         <v>-0.08130000000000001</v>
@@ -16114,7 +16114,7 @@
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
-        <v>43921</v>
+        <v>43921.99998842592</v>
       </c>
       <c r="B682" t="n">
         <v>-0.1339</v>
@@ -16137,7 +16137,7 @@
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
-        <v>43951</v>
+        <v>43951.99998842592</v>
       </c>
       <c r="B683" t="n">
         <v>0.1365</v>
@@ -16160,7 +16160,7 @@
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
-        <v>43982</v>
+        <v>43982.99998842592</v>
       </c>
       <c r="B684" t="n">
         <v>0.0558</v>
@@ -16183,7 +16183,7 @@
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
-        <v>44012</v>
+        <v>44012.99998842592</v>
       </c>
       <c r="B685" t="n">
         <v>0.0245</v>
